--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK301"/>
+  <dimension ref="A1:BK302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>2.67</v>
@@ -5775,7 +5775,7 @@
         <v>2.14</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU26" t="n">
         <v>1.74</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT28" t="n">
         <v>1.75</v>
@@ -9835,7 +9835,7 @@
         <v>1.06</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU46" t="n">
         <v>1.12</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT47" t="n">
         <v>0.6</v>
@@ -16737,7 +16737,7 @@
         <v>2.4</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT81" t="n">
         <v>1.19</v>
@@ -20391,7 +20391,7 @@
         <v>2.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU98" t="n">
         <v>2.36</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
         <v>1.44</v>
@@ -24854,7 +24854,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT120" t="n">
         <v>1.67</v>
@@ -25060,7 +25060,7 @@
         <v>1.27</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -28511,7 +28511,7 @@
         <v>2.06</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU138" t="n">
         <v>1.94</v>
@@ -28914,7 +28914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT140" t="n">
         <v>1.53</v>
@@ -30335,7 +30335,7 @@
         <v>0</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT147" t="n">
         <v>0.64</v>
@@ -32368,7 +32368,7 @@
         <v>2.07</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU157" t="n">
         <v>1.81</v>
@@ -35004,7 +35004,7 @@
         <v>0.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT170" t="n">
         <v>0.67</v>
@@ -36631,7 +36631,7 @@
         <v>1.43</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU178" t="n">
         <v>1.74</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT182" t="n">
         <v>1</v>
@@ -42518,7 +42518,7 @@
         <v>1.5</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU207" t="n">
         <v>2.14</v>
@@ -42921,7 +42921,7 @@
         <v>1.89</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT209" t="n">
         <v>2.07</v>
@@ -45154,7 +45154,7 @@
         <v>0.9</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT220" t="n">
         <v>0.87</v>
@@ -45766,7 +45766,7 @@
         <v>0.47</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU223" t="n">
         <v>1.05</v>
@@ -48808,7 +48808,7 @@
         <v>0.82</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT238" t="n">
         <v>1.29</v>
@@ -51450,7 +51450,7 @@
         <v>1.33</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU251" t="n">
         <v>1.52</v>
@@ -52665,7 +52665,7 @@
         <v>1.17</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT257" t="n">
         <v>1.27</v>
@@ -54292,7 +54292,7 @@
         <v>1.13</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU265" t="n">
         <v>1.29</v>
@@ -58961,7 +58961,7 @@
         <v>1.5</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU288" t="n">
         <v>1.97</v>
@@ -59364,7 +59364,7 @@
         <v>1.14</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT290" t="n">
         <v>1.07</v>
@@ -61652,6 +61652,209 @@
       </c>
       <c r="BK301" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2638302</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45037.65625</v>
+      </c>
+      <c r="F302" t="n">
+        <v>31</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="n">
+        <v>2</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>['45+6', '62']</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>4</v>
+      </c>
+      <c r="R302" t="n">
+        <v>2</v>
+      </c>
+      <c r="S302" t="n">
+        <v>6</v>
+      </c>
+      <c r="T302" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V302" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X302" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK302"/>
+  <dimension ref="A1:BK308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1.75</v>
@@ -1309,7 +1309,7 @@
         <v>0.87</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT7" t="n">
         <v>1.13</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>1.67</v>
@@ -2730,7 +2730,7 @@
         <v>2.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT12" t="n">
         <v>0.87</v>
@@ -3339,7 +3339,7 @@
         <v>2.06</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.07</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT21" t="n">
         <v>1.53</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT22" t="n">
         <v>1.19</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU23" t="n">
         <v>1.73</v>
@@ -5572,7 +5572,7 @@
         <v>0.6</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.06</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.17</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>0.6</v>
@@ -7196,7 +7196,7 @@
         <v>2.06</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU33" t="n">
         <v>2.44</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT36" t="n">
         <v>2.07</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT37" t="n">
         <v>0.4</v>
@@ -8414,7 +8414,7 @@
         <v>2.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9226,7 +9226,7 @@
         <v>2.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU43" t="n">
         <v>2.01</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT44" t="n">
         <v>2.67</v>
@@ -9632,7 +9632,7 @@
         <v>0.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>2</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT48" t="n">
         <v>1.67</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT49" t="n">
         <v>1.75</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT50" t="n">
         <v>0.8100000000000001</v>
@@ -11053,7 +11053,7 @@
         <v>2.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU52" t="n">
         <v>2.28</v>
@@ -11256,7 +11256,7 @@
         <v>2.06</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU53" t="n">
         <v>2.16</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT54" t="n">
         <v>1.44</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU55" t="n">
         <v>1.36</v>
@@ -11865,7 +11865,7 @@
         <v>1.69</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT59" t="n">
         <v>0.4</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT61" t="n">
         <v>1.67</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>1.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.18</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU66" t="n">
         <v>1.45</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT68" t="n">
         <v>1.53</v>
@@ -15113,7 +15113,7 @@
         <v>2.33</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU72" t="n">
         <v>2.53</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT74" t="n">
         <v>1.44</v>
@@ -15719,10 +15719,10 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -15925,7 +15925,7 @@
         <v>0.87</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.27</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.56</v>
@@ -17143,7 +17143,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT86" t="n">
         <v>1.75</v>
@@ -18155,7 +18155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT87" t="n">
         <v>0.4</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.57</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT92" t="n">
         <v>1.27</v>
@@ -19579,7 +19579,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.55</v>
@@ -19985,7 +19985,7 @@
         <v>1.06</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU96" t="n">
         <v>1.39</v>
@@ -20185,7 +20185,7 @@
         <v>2.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT97" t="n">
         <v>1.19</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1.67</v>
@@ -21000,7 +21000,7 @@
         <v>0.87</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU101" t="n">
         <v>1.33</v>
@@ -21403,10 +21403,10 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -21812,7 +21812,7 @@
         <v>1.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU105" t="n">
         <v>2.27</v>
@@ -22012,10 +22012,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.57</v>
@@ -23233,7 +23233,7 @@
         <v>2.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU112" t="n">
         <v>2.54</v>
@@ -23839,7 +23839,7 @@
         <v>2.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT115" t="n">
         <v>1.75</v>
@@ -24045,7 +24045,7 @@
         <v>1.06</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT118" t="n">
         <v>0.87</v>
@@ -25057,7 +25057,7 @@
         <v>0.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT121" t="n">
         <v>1.13</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25463,10 +25463,10 @@
         <v>0.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU123" t="n">
         <v>1.63</v>
@@ -25666,10 +25666,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.58</v>
@@ -26075,7 +26075,7 @@
         <v>2.14</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU126" t="n">
         <v>1.98</v>
@@ -26278,7 +26278,7 @@
         <v>1.69</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU127" t="n">
         <v>1.55</v>
@@ -26478,10 +26478,10 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU128" t="n">
         <v>1.14</v>
@@ -26681,7 +26681,7 @@
         <v>0.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT129" t="n">
         <v>0.4</v>
@@ -27090,7 +27090,7 @@
         <v>2.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU131" t="n">
         <v>1.98</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT141" t="n">
         <v>1.27</v>
@@ -29320,10 +29320,10 @@
         <v>0.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29726,7 +29726,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT144" t="n">
         <v>1</v>
@@ -29932,7 +29932,7 @@
         <v>1.69</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.45</v>
@@ -30135,7 +30135,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -30338,7 +30338,7 @@
         <v>1.25</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU147" t="n">
         <v>1.41</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT148" t="n">
         <v>0.87</v>
@@ -30744,7 +30744,7 @@
         <v>2.07</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU149" t="n">
         <v>1.86</v>
@@ -30947,7 +30947,7 @@
         <v>2.14</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU150" t="n">
         <v>2.09</v>
@@ -31350,7 +31350,7 @@
         <v>1.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT152" t="n">
         <v>1.44</v>
@@ -33177,7 +33177,7 @@
         <v>0.86</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT161" t="n">
         <v>0.8100000000000001</v>
@@ -33383,7 +33383,7 @@
         <v>1.5</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU162" t="n">
         <v>2.2</v>
@@ -33786,10 +33786,10 @@
         <v>1.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU164" t="n">
         <v>1.54</v>
@@ -33989,10 +33989,10 @@
         <v>1.25</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -34395,7 +34395,7 @@
         <v>0.88</v>
       </c>
       <c r="AS167" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT167" t="n">
         <v>0.8100000000000001</v>
@@ -34598,7 +34598,7 @@
         <v>2.38</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT168" t="n">
         <v>2.67</v>
@@ -35007,7 +35007,7 @@
         <v>1.25</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -36428,7 +36428,7 @@
         <v>1.33</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU177" t="n">
         <v>1.42</v>
@@ -36628,7 +36628,7 @@
         <v>0.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT178" t="n">
         <v>1.13</v>
@@ -37037,7 +37037,7 @@
         <v>2.07</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU180" t="n">
         <v>1.77</v>
@@ -37237,7 +37237,7 @@
         <v>0.88</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT181" t="n">
         <v>0.6</v>
@@ -37643,7 +37643,7 @@
         <v>2.44</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT183" t="n">
         <v>2.67</v>
@@ -37849,7 +37849,7 @@
         <v>1.5</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU184" t="n">
         <v>2.15</v>
@@ -38049,7 +38049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT185" t="n">
         <v>1.19</v>
@@ -38252,10 +38252,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.55</v>
@@ -38864,7 +38864,7 @@
         <v>1.69</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU189" t="n">
         <v>1.37</v>
@@ -39267,7 +39267,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT191" t="n">
         <v>1.44</v>
@@ -39473,7 +39473,7 @@
         <v>1.69</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU192" t="n">
         <v>1.49</v>
@@ -39876,10 +39876,10 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU194" t="n">
         <v>1.6</v>
@@ -40082,7 +40082,7 @@
         <v>0.6</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU195" t="n">
         <v>1.58</v>
@@ -40488,7 +40488,7 @@
         <v>2.14</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.96</v>
@@ -40891,10 +40891,10 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU199" t="n">
         <v>1.53</v>
@@ -41297,7 +41297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT201" t="n">
         <v>0.4</v>
@@ -43124,7 +43124,7 @@
         <v>0.7</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT210" t="n">
         <v>0.6</v>
@@ -43327,7 +43327,7 @@
         <v>1.56</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT211" t="n">
         <v>1.53</v>
@@ -43533,7 +43533,7 @@
         <v>2.14</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU212" t="n">
         <v>1.94</v>
@@ -43733,10 +43733,10 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU213" t="n">
         <v>1.58</v>
@@ -44139,7 +44139,7 @@
         <v>1.91</v>
       </c>
       <c r="AS215" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT215" t="n">
         <v>1.75</v>
@@ -44342,10 +44342,10 @@
         <v>0.82</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU216" t="n">
         <v>1.88</v>
@@ -44751,7 +44751,7 @@
         <v>2.4</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU218" t="n">
         <v>1.96</v>
@@ -44954,7 +44954,7 @@
         <v>2.33</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU219" t="n">
         <v>2.21</v>
@@ -45357,10 +45357,10 @@
         <v>1.6</v>
       </c>
       <c r="AS221" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU221" t="n">
         <v>1.12</v>
@@ -45763,7 +45763,7 @@
         <v>1</v>
       </c>
       <c r="AS223" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT223" t="n">
         <v>1.13</v>
@@ -45966,7 +45966,7 @@
         <v>1.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT224" t="n">
         <v>1.44</v>
@@ -46575,7 +46575,7 @@
         <v>1.8</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT227" t="n">
         <v>2.07</v>
@@ -47390,7 +47390,7 @@
         <v>1.33</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU231" t="n">
         <v>1.49</v>
@@ -47590,7 +47590,7 @@
         <v>2.58</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT232" t="n">
         <v>2.67</v>
@@ -47796,7 +47796,7 @@
         <v>0.87</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU233" t="n">
         <v>1.38</v>
@@ -47999,7 +47999,7 @@
         <v>1.69</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU234" t="n">
         <v>1.58</v>
@@ -48199,7 +48199,7 @@
         <v>1.27</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT235" t="n">
         <v>1.27</v>
@@ -48402,10 +48402,10 @@
         <v>0.64</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU236" t="n">
         <v>1.9</v>
@@ -48811,7 +48811,7 @@
         <v>1.25</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU238" t="n">
         <v>1.52</v>
@@ -49011,7 +49011,7 @@
         <v>0.73</v>
       </c>
       <c r="AS239" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT239" t="n">
         <v>0.6</v>
@@ -49420,7 +49420,7 @@
         <v>2.4</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU241" t="n">
         <v>1.9</v>
@@ -49823,7 +49823,7 @@
         <v>1</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT243" t="n">
         <v>0.8100000000000001</v>
@@ -50635,7 +50635,7 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT247" t="n">
         <v>0.87</v>
@@ -51247,7 +51247,7 @@
         <v>1.6</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU250" t="n">
         <v>1.5</v>
@@ -51653,7 +51653,7 @@
         <v>1.06</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU252" t="n">
         <v>1.5</v>
@@ -51853,7 +51853,7 @@
         <v>1.23</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT253" t="n">
         <v>1.19</v>
@@ -52465,7 +52465,7 @@
         <v>0.87</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU256" t="n">
         <v>1.41</v>
@@ -52871,7 +52871,7 @@
         <v>0.6</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU258" t="n">
         <v>1.49</v>
@@ -53074,7 +53074,7 @@
         <v>2.07</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU259" t="n">
         <v>1.62</v>
@@ -53683,7 +53683,7 @@
         <v>1.6</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU262" t="n">
         <v>1.52</v>
@@ -54086,10 +54086,10 @@
         <v>0.46</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU264" t="n">
         <v>1.59</v>
@@ -54289,7 +54289,7 @@
         <v>1.08</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT265" t="n">
         <v>1.13</v>
@@ -54492,7 +54492,7 @@
         <v>1.46</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT266" t="n">
         <v>1.44</v>
@@ -54695,7 +54695,7 @@
         <v>0.42</v>
       </c>
       <c r="AS267" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT267" t="n">
         <v>0.4</v>
@@ -55304,7 +55304,7 @@
         <v>1.69</v>
       </c>
       <c r="AS270" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT270" t="n">
         <v>1.67</v>
@@ -55916,7 +55916,7 @@
         <v>2.06</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU273" t="n">
         <v>1.77</v>
@@ -56522,7 +56522,7 @@
         <v>1.92</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT276" t="n">
         <v>2.07</v>
@@ -57334,7 +57334,7 @@
         <v>1.07</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT280" t="n">
         <v>1</v>
@@ -57540,7 +57540,7 @@
         <v>1.6</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU281" t="n">
         <v>1.53</v>
@@ -57740,10 +57740,10 @@
         <v>1.31</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU282" t="n">
         <v>1.28</v>
@@ -58349,7 +58349,7 @@
         <v>1.15</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT285" t="n">
         <v>1.27</v>
@@ -58555,7 +58555,7 @@
         <v>1.5</v>
       </c>
       <c r="AT286" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU286" t="n">
         <v>2.04</v>
@@ -58755,10 +58755,10 @@
         <v>0.5</v>
       </c>
       <c r="AS287" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AT287" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU287" t="n">
         <v>1.06</v>
@@ -59367,7 +59367,7 @@
         <v>1.25</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU290" t="n">
         <v>1.46</v>
@@ -59567,7 +59567,7 @@
         <v>1.77</v>
       </c>
       <c r="AS291" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT291" t="n">
         <v>1.53</v>
@@ -61855,6 +61855,1224 @@
       </c>
       <c r="BK302" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2638300</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45038.41666666666</v>
+      </c>
+      <c r="F303" t="n">
+        <v>31</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2</v>
+      </c>
+      <c r="L303" t="n">
+        <v>3</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>3</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['9', '20', '65']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>4</v>
+      </c>
+      <c r="R303" t="n">
+        <v>8</v>
+      </c>
+      <c r="S303" t="n">
+        <v>12</v>
+      </c>
+      <c r="T303" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V303" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X303" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2638299</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45038.54166666666</v>
+      </c>
+      <c r="F304" t="n">
+        <v>31</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>1</v>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>1</v>
+      </c>
+      <c r="N304" t="n">
+        <v>1</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>3</v>
+      </c>
+      <c r="R304" t="n">
+        <v>4</v>
+      </c>
+      <c r="S304" t="n">
+        <v>7</v>
+      </c>
+      <c r="T304" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U304" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V304" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X304" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2638301</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45038.65625</v>
+      </c>
+      <c r="F305" t="n">
+        <v>31</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="n">
+        <v>1</v>
+      </c>
+      <c r="N305" t="n">
+        <v>2</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>9</v>
+      </c>
+      <c r="R305" t="n">
+        <v>9</v>
+      </c>
+      <c r="S305" t="n">
+        <v>18</v>
+      </c>
+      <c r="T305" t="n">
+        <v>3</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V305" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2638297</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45039.3125</v>
+      </c>
+      <c r="F306" t="n">
+        <v>31</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>3</v>
+      </c>
+      <c r="N306" t="n">
+        <v>3</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['48', '76', '88']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>5</v>
+      </c>
+      <c r="R306" t="n">
+        <v>4</v>
+      </c>
+      <c r="S306" t="n">
+        <v>9</v>
+      </c>
+      <c r="T306" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V306" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X306" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2638304</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F307" t="n">
+        <v>31</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>2</v>
+      </c>
+      <c r="J307" t="n">
+        <v>2</v>
+      </c>
+      <c r="K307" t="n">
+        <v>4</v>
+      </c>
+      <c r="L307" t="n">
+        <v>3</v>
+      </c>
+      <c r="M307" t="n">
+        <v>2</v>
+      </c>
+      <c r="N307" t="n">
+        <v>5</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['26', '43', '59']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['8', '13']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>5</v>
+      </c>
+      <c r="R307" t="n">
+        <v>3</v>
+      </c>
+      <c r="S307" t="n">
+        <v>8</v>
+      </c>
+      <c r="T307" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V307" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X307" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2638303</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F308" t="n">
+        <v>31</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>3</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>3</v>
+      </c>
+      <c r="L308" t="n">
+        <v>3</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>3</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['2', '27', '36']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>3</v>
+      </c>
+      <c r="R308" t="n">
+        <v>8</v>
+      </c>
+      <c r="S308" t="n">
+        <v>11</v>
+      </c>
+      <c r="T308" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V308" t="n">
+        <v>5</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X308" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK308"/>
+  <dimension ref="A1:BK311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT2" t="n">
         <v>1.19</v>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT18" t="n">
         <v>1.44</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU24" t="n">
         <v>1.57</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.13</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU31" t="n">
         <v>3.06</v>
@@ -8211,7 +8211,7 @@
         <v>2.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU38" t="n">
         <v>2.3</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT39" t="n">
         <v>0.67</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT41" t="n">
         <v>1.38</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.4</v>
@@ -9429,7 +9429,7 @@
         <v>1.88</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU44" t="n">
         <v>1.63</v>
@@ -10241,7 +10241,7 @@
         <v>1.53</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU48" t="n">
         <v>1.45</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU51" t="n">
         <v>1.16</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT55" t="n">
         <v>0.63</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT60" t="n">
         <v>0.87</v>
@@ -12880,7 +12880,7 @@
         <v>1.27</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU61" t="n">
         <v>1.25</v>
@@ -13083,7 +13083,7 @@
         <v>1.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -14907,10 +14907,10 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15316,7 +15316,7 @@
         <v>2.06</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU73" t="n">
         <v>2.04</v>
@@ -16531,7 +16531,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT79" t="n">
         <v>1.2</v>
@@ -16734,7 +16734,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT80" t="n">
         <v>1.13</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT83" t="n">
         <v>1.53</v>
@@ -18564,7 +18564,7 @@
         <v>0.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU89" t="n">
         <v>1.62</v>
@@ -18767,7 +18767,7 @@
         <v>2.07</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU90" t="n">
         <v>2.23</v>
@@ -19576,7 +19576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT94" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>0.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU100" t="n">
         <v>1.2</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT102" t="n">
         <v>0.8100000000000001</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT104" t="n">
         <v>1.27</v>
@@ -22218,7 +22218,7 @@
         <v>1.69</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU107" t="n">
         <v>1.57</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT108" t="n">
         <v>2.07</v>
@@ -22624,7 +22624,7 @@
         <v>2.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU109" t="n">
         <v>2.3</v>
@@ -24857,7 +24857,7 @@
         <v>1.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU120" t="n">
         <v>1.44</v>
@@ -25263,7 +25263,7 @@
         <v>1.53</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU122" t="n">
         <v>1.61</v>
@@ -25869,10 +25869,10 @@
         <v>2.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -26072,7 +26072,7 @@
         <v>0</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT126" t="n">
         <v>0.67</v>
@@ -27087,7 +27087,7 @@
         <v>1.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT131" t="n">
         <v>1.4</v>
@@ -27902,7 +27902,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU135" t="n">
         <v>1.41</v>
@@ -29729,7 +29729,7 @@
         <v>0.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU144" t="n">
         <v>1.17</v>
@@ -30132,7 +30132,7 @@
         <v>1.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT146" t="n">
         <v>1.4</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT150" t="n">
         <v>1.2</v>
@@ -31147,7 +31147,7 @@
         <v>2.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT151" t="n">
         <v>2.07</v>
@@ -32977,7 +32977,7 @@
         <v>2.06</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU160" t="n">
         <v>1.92</v>
@@ -33583,7 +33583,7 @@
         <v>1.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT163" t="n">
         <v>1.19</v>
@@ -34195,7 +34195,7 @@
         <v>1.06</v>
       </c>
       <c r="AT166" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU166" t="n">
         <v>1.58</v>
@@ -34601,7 +34601,7 @@
         <v>0.5</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU168" t="n">
         <v>1.22</v>
@@ -34801,10 +34801,10 @@
         <v>2.13</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU169" t="n">
         <v>2.02</v>
@@ -36831,7 +36831,7 @@
         <v>0.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT179" t="n">
         <v>0.87</v>
@@ -37443,7 +37443,7 @@
         <v>1.25</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU182" t="n">
         <v>1.47</v>
@@ -37646,7 +37646,7 @@
         <v>1.25</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU183" t="n">
         <v>1.49</v>
@@ -38458,7 +38458,7 @@
         <v>1.06</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU187" t="n">
         <v>1.58</v>
@@ -38658,7 +38658,7 @@
         <v>2.22</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT188" t="n">
         <v>1.75</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT196" t="n">
         <v>0.6</v>
@@ -40485,7 +40485,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -40688,7 +40688,7 @@
         <v>0.89</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT198" t="n">
         <v>1.27</v>
@@ -41097,7 +41097,7 @@
         <v>2.33</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU200" t="n">
         <v>2.28</v>
@@ -41503,7 +41503,7 @@
         <v>0.6</v>
       </c>
       <c r="AT202" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU202" t="n">
         <v>1.57</v>
@@ -42112,7 +42112,7 @@
         <v>1.06</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU205" t="n">
         <v>1.5</v>
@@ -43530,7 +43530,7 @@
         <v>1.36</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT212" t="n">
         <v>1.38</v>
@@ -43939,7 +43939,7 @@
         <v>0.87</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU214" t="n">
         <v>1.39</v>
@@ -44748,7 +44748,7 @@
         <v>0.9</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT218" t="n">
         <v>1.2</v>
@@ -45563,7 +45563,7 @@
         <v>1.6</v>
       </c>
       <c r="AT222" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU222" t="n">
         <v>1.54</v>
@@ -46372,10 +46372,10 @@
         <v>1.09</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT226" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU226" t="n">
         <v>1.78</v>
@@ -47593,7 +47593,7 @@
         <v>1.27</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU232" t="n">
         <v>1.68</v>
@@ -48605,7 +48605,7 @@
         <v>2</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT237" t="n">
         <v>1.75</v>
@@ -49217,7 +49217,7 @@
         <v>0.6</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU240" t="n">
         <v>1.55</v>
@@ -49417,7 +49417,7 @@
         <v>1.25</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT241" t="n">
         <v>1.38</v>
@@ -50026,7 +50026,7 @@
         <v>1.25</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT244" t="n">
         <v>1.19</v>
@@ -50841,7 +50841,7 @@
         <v>2.06</v>
       </c>
       <c r="AT248" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU248" t="n">
         <v>1.74</v>
@@ -53274,7 +53274,7 @@
         <v>0.67</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT260" t="n">
         <v>0.6</v>
@@ -53477,7 +53477,7 @@
         <v>0.83</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT261" t="n">
         <v>0.87</v>
@@ -53883,7 +53883,7 @@
         <v>0.92</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT263" t="n">
         <v>0.8100000000000001</v>
@@ -54901,7 +54901,7 @@
         <v>1.33</v>
       </c>
       <c r="AT268" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU268" t="n">
         <v>1.52</v>
@@ -55104,7 +55104,7 @@
         <v>1.5</v>
       </c>
       <c r="AT269" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU269" t="n">
         <v>2.08</v>
@@ -55307,7 +55307,7 @@
         <v>1.88</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU270" t="n">
         <v>1.54</v>
@@ -56116,7 +56116,7 @@
         <v>0.38</v>
       </c>
       <c r="AS274" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AT274" t="n">
         <v>0.4</v>
@@ -57337,7 +57337,7 @@
         <v>1.27</v>
       </c>
       <c r="AT280" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU280" t="n">
         <v>1.61</v>
@@ -57946,7 +57946,7 @@
         <v>0.87</v>
       </c>
       <c r="AT283" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU283" t="n">
         <v>1.38</v>
@@ -58146,7 +58146,7 @@
         <v>0.86</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT284" t="n">
         <v>0.8100000000000001</v>
@@ -58958,7 +58958,7 @@
         <v>1.08</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT288" t="n">
         <v>1.13</v>
@@ -59164,7 +59164,7 @@
         <v>1.33</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AU289" t="n">
         <v>1.5</v>
@@ -63073,6 +63073,615 @@
       </c>
       <c r="BK308" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2638305</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45039.54166666666</v>
+      </c>
+      <c r="F309" t="n">
+        <v>31</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="n">
+        <v>2</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>2</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>['40', '74']</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>4</v>
+      </c>
+      <c r="R309" t="n">
+        <v>2</v>
+      </c>
+      <c r="S309" t="n">
+        <v>6</v>
+      </c>
+      <c r="T309" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V309" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X309" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2638298</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45039.65625</v>
+      </c>
+      <c r="F310" t="n">
+        <v>31</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>3</v>
+      </c>
+      <c r="R310" t="n">
+        <v>6</v>
+      </c>
+      <c r="S310" t="n">
+        <v>9</v>
+      </c>
+      <c r="T310" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U310" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V310" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X310" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2638296</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45040.65625</v>
+      </c>
+      <c r="F311" t="n">
+        <v>31</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="n">
+        <v>3</v>
+      </c>
+      <c r="M311" t="n">
+        <v>1</v>
+      </c>
+      <c r="N311" t="n">
+        <v>4</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['39', '74', '84']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>3</v>
+      </c>
+      <c r="R311" t="n">
+        <v>4</v>
+      </c>
+      <c r="S311" t="n">
+        <v>7</v>
+      </c>
+      <c r="T311" t="n">
+        <v>3</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK311"/>
+  <dimension ref="A1:BK313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1.4</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0.8100000000000001</v>
@@ -3948,7 +3948,7 @@
         <v>2.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU22" t="n">
         <v>1.61</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>0.8100000000000001</v>
@@ -7399,7 +7399,7 @@
         <v>2.07</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU34" t="n">
         <v>2.92</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.13</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU57" t="n">
         <v>1.54</v>
@@ -12271,7 +12271,7 @@
         <v>1.6</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU58" t="n">
         <v>1.19</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
         <v>0.6</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.63</v>
@@ -16128,7 +16128,7 @@
         <v>0.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU77" t="n">
         <v>1.29</v>
@@ -16940,7 +16940,7 @@
         <v>1.25</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU81" t="n">
         <v>1.47</v>
@@ -19173,7 +19173,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>0.63</v>
@@ -20188,7 +20188,7 @@
         <v>1.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20997,7 +20997,7 @@
         <v>0.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>1.2</v>
@@ -21609,7 +21609,7 @@
         <v>2.2</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU104" t="n">
         <v>2.04</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT113" t="n">
         <v>1.53</v>
@@ -24042,7 +24042,7 @@
         <v>0.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
         <v>1.2</v>
@@ -24248,7 +24248,7 @@
         <v>0.6</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU117" t="n">
         <v>1.68</v>
@@ -27290,10 +27290,10 @@
         <v>1.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU132" t="n">
         <v>1.55</v>
@@ -28102,7 +28102,7 @@
         <v>2.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT136" t="n">
         <v>1.75</v>
@@ -29120,7 +29120,7 @@
         <v>1.88</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29526,7 +29526,7 @@
         <v>2.33</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU143" t="n">
         <v>2.45</v>
@@ -31756,7 +31756,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT154" t="n">
         <v>1.75</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
         <v>2.07</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU159" t="n">
         <v>2.17</v>
@@ -33586,7 +33586,7 @@
         <v>2.25</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU163" t="n">
         <v>1.89</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
         <v>0.9399999999999999</v>
@@ -35616,7 +35616,7 @@
         <v>0.6</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU173" t="n">
         <v>1.56</v>
@@ -35816,7 +35816,7 @@
         <v>1.88</v>
       </c>
       <c r="AS174" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT174" t="n">
         <v>1.44</v>
@@ -38052,7 +38052,7 @@
         <v>0.5</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU185" t="n">
         <v>1.13</v>
@@ -38455,7 +38455,7 @@
         <v>2</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT187" t="n">
         <v>1.56</v>
@@ -39673,7 +39673,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT193" t="n">
         <v>0.87</v>
@@ -40691,7 +40691,7 @@
         <v>2.25</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU198" t="n">
         <v>1.89</v>
@@ -42109,7 +42109,7 @@
         <v>2.5</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT205" t="n">
         <v>2.69</v>
@@ -42315,7 +42315,7 @@
         <v>1.33</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU206" t="n">
         <v>1.46</v>
@@ -43936,7 +43936,7 @@
         <v>1.91</v>
       </c>
       <c r="AS214" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT214" t="n">
         <v>1.56</v>
@@ -44548,7 +44548,7 @@
         <v>1.69</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU217" t="n">
         <v>1.54</v>
@@ -46172,7 +46172,7 @@
         <v>2.06</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU225" t="n">
         <v>1.73</v>
@@ -46981,7 +46981,7 @@
         <v>1.7</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT229" t="n">
         <v>1.53</v>
@@ -47793,7 +47793,7 @@
         <v>0.83</v>
       </c>
       <c r="AS233" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT233" t="n">
         <v>1</v>
@@ -48202,7 +48202,7 @@
         <v>1.25</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU235" t="n">
         <v>1.28</v>
@@ -50029,7 +50029,7 @@
         <v>1.6</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU244" t="n">
         <v>1.85</v>
@@ -50432,7 +50432,7 @@
         <v>0.36</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT246" t="n">
         <v>0.4</v>
@@ -51650,7 +51650,7 @@
         <v>1.42</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT252" t="n">
         <v>1.4</v>
@@ -51856,7 +51856,7 @@
         <v>1.27</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU253" t="n">
         <v>1.62</v>
@@ -52462,7 +52462,7 @@
         <v>1.15</v>
       </c>
       <c r="AS256" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT256" t="n">
         <v>1.38</v>
@@ -52668,7 +52668,7 @@
         <v>1.25</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU257" t="n">
         <v>1.52</v>
@@ -56322,7 +56322,7 @@
         <v>1.69</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU275" t="n">
         <v>1.57</v>
@@ -56725,7 +56725,7 @@
         <v>0.85</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT277" t="n">
         <v>0.87</v>
@@ -57943,7 +57943,7 @@
         <v>2.64</v>
       </c>
       <c r="AS283" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT283" t="n">
         <v>2.69</v>
@@ -58352,7 +58352,7 @@
         <v>1.53</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU285" t="n">
         <v>1.87</v>
@@ -59973,7 +59973,7 @@
         <v>2</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT293" t="n">
         <v>2.07</v>
@@ -60585,7 +60585,7 @@
         <v>2.06</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU296" t="n">
         <v>1.75</v>
@@ -60785,7 +60785,7 @@
         <v>0.57</v>
       </c>
       <c r="AS297" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AT297" t="n">
         <v>0.6</v>
@@ -61397,7 +61397,7 @@
         <v>2.07</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU300" t="n">
         <v>1.69</v>
@@ -63682,6 +63682,412 @@
       </c>
       <c r="BK311" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2638310</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45044.5625</v>
+      </c>
+      <c r="F312" t="n">
+        <v>32</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>7</v>
+      </c>
+      <c r="R312" t="n">
+        <v>4</v>
+      </c>
+      <c r="S312" t="n">
+        <v>11</v>
+      </c>
+      <c r="T312" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V312" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2638315</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45044.65625</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>2</v>
+      </c>
+      <c r="N313" t="n">
+        <v>2</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['21', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>3</v>
+      </c>
+      <c r="R313" t="n">
+        <v>3</v>
+      </c>
+      <c r="S313" t="n">
+        <v>6</v>
+      </c>
+      <c r="T313" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V313" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK313"/>
+  <dimension ref="A1:BK316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -4151,7 +4151,7 @@
         <v>1.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.63</v>
@@ -6181,7 +6181,7 @@
         <v>1.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU28" t="n">
         <v>0.91</v>
@@ -6993,7 +6993,7 @@
         <v>1.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT33" t="n">
         <v>0.63</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.38</v>
@@ -7805,7 +7805,7 @@
         <v>0.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -10444,7 +10444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU49" t="n">
         <v>1.56</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>0.9399999999999999</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT53" t="n">
         <v>1.38</v>
@@ -11459,7 +11459,7 @@
         <v>0.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU54" t="n">
         <v>1.28</v>
@@ -13689,7 +13689,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>0.6</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -14704,10 +14704,10 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU70" t="n">
         <v>2.3</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT73" t="n">
         <v>1.56</v>
@@ -15519,7 +15519,7 @@
         <v>1.27</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU74" t="n">
         <v>1.52</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT85" t="n">
         <v>0.8100000000000001</v>
@@ -17955,7 +17955,7 @@
         <v>1.53</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU86" t="n">
         <v>1.64</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>0.9399999999999999</v>
@@ -18970,7 +18970,7 @@
         <v>1.5</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU91" t="n">
         <v>2.24</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT93" t="n">
         <v>1.53</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT95" t="n">
         <v>0.87</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU99" t="n">
         <v>1.33</v>
@@ -22421,7 +22421,7 @@
         <v>1.6</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22621,7 +22621,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
         <v>2.69</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT114" t="n">
         <v>0.6</v>
@@ -23842,7 +23842,7 @@
         <v>1.27</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24651,10 +24651,10 @@
         <v>2.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU119" t="n">
         <v>1.52</v>
@@ -26884,10 +26884,10 @@
         <v>2.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27699,7 +27699,7 @@
         <v>0.6</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU134" t="n">
         <v>1.66</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28305,7 +28305,7 @@
         <v>0.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT137" t="n">
         <v>0.6</v>
@@ -28508,7 +28508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT138" t="n">
         <v>1.13</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT149" t="n">
         <v>1.38</v>
@@ -31150,7 +31150,7 @@
         <v>2.25</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -31353,7 +31353,7 @@
         <v>1.25</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU152" t="n">
         <v>1.58</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU154" t="n">
         <v>1.64</v>
@@ -31959,7 +31959,7 @@
         <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT155" t="n">
         <v>0.4</v>
@@ -32165,7 +32165,7 @@
         <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU156" t="n">
         <v>1.24</v>
@@ -32365,7 +32365,7 @@
         <v>0.57</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT157" t="n">
         <v>1.13</v>
@@ -32974,7 +32974,7 @@
         <v>2.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT160" t="n">
         <v>2.69</v>
@@ -35210,7 +35210,7 @@
         <v>1.69</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU171" t="n">
         <v>1.4</v>
@@ -35819,7 +35819,7 @@
         <v>1</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU174" t="n">
         <v>1.28</v>
@@ -36019,7 +36019,7 @@
         <v>0.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT175" t="n">
         <v>0.4</v>
@@ -36225,7 +36225,7 @@
         <v>1.6</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU176" t="n">
         <v>1.5</v>
@@ -36425,7 +36425,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT177" t="n">
         <v>0.67</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT180" t="n">
         <v>1.2</v>
@@ -38661,7 +38661,7 @@
         <v>2.25</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU188" t="n">
         <v>1.87</v>
@@ -39064,7 +39064,7 @@
         <v>0.89</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT190" t="n">
         <v>0.8100000000000001</v>
@@ -39270,7 +39270,7 @@
         <v>1.88</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU191" t="n">
         <v>1.54</v>
@@ -41703,7 +41703,7 @@
         <v>1.1</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT203" t="n">
         <v>0.8100000000000001</v>
@@ -41909,7 +41909,7 @@
         <v>1.6</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU204" t="n">
         <v>1.47</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT206" t="n">
         <v>1.12</v>
@@ -42718,10 +42718,10 @@
         <v>1.6</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU208" t="n">
         <v>1.68</v>
@@ -42924,7 +42924,7 @@
         <v>1.25</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU209" t="n">
         <v>1.46</v>
@@ -44142,7 +44142,7 @@
         <v>1.88</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU215" t="n">
         <v>1.5</v>
@@ -45969,7 +45969,7 @@
         <v>1.38</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU224" t="n">
         <v>1.64</v>
@@ -46169,7 +46169,7 @@
         <v>1.36</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT225" t="n">
         <v>1.12</v>
@@ -46578,7 +46578,7 @@
         <v>1.25</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU227" t="n">
         <v>1.32</v>
@@ -47184,7 +47184,7 @@
         <v>0.4</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT230" t="n">
         <v>0.4</v>
@@ -47387,7 +47387,7 @@
         <v>0.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT231" t="n">
         <v>0.63</v>
@@ -48608,7 +48608,7 @@
         <v>2.2</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU237" t="n">
         <v>1.86</v>
@@ -49623,7 +49623,7 @@
         <v>2.33</v>
       </c>
       <c r="AT242" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU242" t="n">
         <v>2.2</v>
@@ -50232,7 +50232,7 @@
         <v>1.5</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU245" t="n">
         <v>2.07</v>
@@ -50838,7 +50838,7 @@
         <v>1.25</v>
       </c>
       <c r="AS248" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT248" t="n">
         <v>0.9399999999999999</v>
@@ -51041,7 +51041,7 @@
         <v>1.82</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT249" t="n">
         <v>1.53</v>
@@ -51447,7 +51447,7 @@
         <v>1.18</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT251" t="n">
         <v>1.13</v>
@@ -52059,7 +52059,7 @@
         <v>2.33</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU254" t="n">
         <v>2.11</v>
@@ -52262,7 +52262,7 @@
         <v>1.69</v>
       </c>
       <c r="AT255" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU255" t="n">
         <v>1.58</v>
@@ -53071,7 +53071,7 @@
         <v>1</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT259" t="n">
         <v>1</v>
@@ -54495,7 +54495,7 @@
         <v>1.53</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU266" t="n">
         <v>1.91</v>
@@ -54898,7 +54898,7 @@
         <v>2.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT268" t="n">
         <v>2.69</v>
@@ -55507,7 +55507,7 @@
         <v>1.67</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT271" t="n">
         <v>1.53</v>
@@ -55713,7 +55713,7 @@
         <v>0.6</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU272" t="n">
         <v>1.51</v>
@@ -55913,7 +55913,7 @@
         <v>1.15</v>
       </c>
       <c r="AS273" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT273" t="n">
         <v>1.2</v>
@@ -56525,7 +56525,7 @@
         <v>1.38</v>
       </c>
       <c r="AT276" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU276" t="n">
         <v>1.6</v>
@@ -56928,7 +56928,7 @@
         <v>0.62</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT278" t="n">
         <v>0.6</v>
@@ -57134,7 +57134,7 @@
         <v>2.33</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU279" t="n">
         <v>2.1</v>
@@ -59161,7 +59161,7 @@
         <v>1.57</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT289" t="n">
         <v>1.56</v>
@@ -59976,7 +59976,7 @@
         <v>1</v>
       </c>
       <c r="AT293" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU293" t="n">
         <v>1.44</v>
@@ -60179,7 +60179,7 @@
         <v>1.69</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AU294" t="n">
         <v>1.55</v>
@@ -60582,7 +60582,7 @@
         <v>1.14</v>
       </c>
       <c r="AS296" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT296" t="n">
         <v>1.38</v>
@@ -60988,7 +60988,7 @@
         <v>0.86</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT298" t="n">
         <v>0.87</v>
@@ -61394,7 +61394,7 @@
         <v>1.27</v>
       </c>
       <c r="AS300" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT300" t="n">
         <v>1.12</v>
@@ -61600,7 +61600,7 @@
         <v>1.5</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU301" t="n">
         <v>2.02</v>
@@ -64087,6 +64087,615 @@
         <v>10</v>
       </c>
       <c r="BK313" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2638314</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45045.54166666666</v>
+      </c>
+      <c r="F314" t="n">
+        <v>32</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
+      <c r="N314" t="n">
+        <v>2</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>1</v>
+      </c>
+      <c r="R314" t="n">
+        <v>5</v>
+      </c>
+      <c r="S314" t="n">
+        <v>6</v>
+      </c>
+      <c r="T314" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2</v>
+      </c>
+      <c r="V314" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X314" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2638312</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45045.65625</v>
+      </c>
+      <c r="F315" t="n">
+        <v>32</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="n">
+        <v>2</v>
+      </c>
+      <c r="N315" t="n">
+        <v>3</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['34', '88']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>3</v>
+      </c>
+      <c r="R315" t="n">
+        <v>3</v>
+      </c>
+      <c r="S315" t="n">
+        <v>6</v>
+      </c>
+      <c r="T315" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V315" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X315" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2638309</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45046.3125</v>
+      </c>
+      <c r="F316" t="n">
+        <v>32</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="n">
+        <v>3</v>
+      </c>
+      <c r="M316" t="n">
+        <v>1</v>
+      </c>
+      <c r="N316" t="n">
+        <v>4</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>['77', '83', '90']</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>2</v>
+      </c>
+      <c r="R316" t="n">
+        <v>3</v>
+      </c>
+      <c r="S316" t="n">
+        <v>5</v>
+      </c>
+      <c r="T316" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V316" t="n">
+        <v>5</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X316" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK316" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK316"/>
+  <dimension ref="A1:BK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT6" t="n">
         <v>0.63</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.53</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT15" t="n">
         <v>0.9399999999999999</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT17" t="n">
         <v>1.38</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT25" t="n">
         <v>1.38</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU30" t="n">
         <v>1.21</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT31" t="n">
         <v>2.69</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT32" t="n">
         <v>1.41</v>
@@ -8008,7 +8008,7 @@
         <v>1.27</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU37" t="n">
         <v>0.67</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT38" t="n">
         <v>0.9399999999999999</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT42" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>1.53</v>
       </c>
       <c r="AU42" t="n">
         <v>2.22</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>1.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -10647,7 +10647,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT52" t="n">
         <v>0.67</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT56" t="n">
         <v>1.2</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT58" t="n">
         <v>1.12</v>
@@ -12474,7 +12474,7 @@
         <v>1.88</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -12677,7 +12677,7 @@
         <v>2.25</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -14095,10 +14095,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU67" t="n">
         <v>2.32</v>
@@ -14301,7 +14301,7 @@
         <v>1.38</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.45</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT69" t="n">
         <v>1.94</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT72" t="n">
         <v>1.38</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.04</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT82" t="n">
         <v>1.4</v>
@@ -17346,7 +17346,7 @@
         <v>2.2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>2.05</v>
@@ -17546,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -17752,7 +17752,7 @@
         <v>1.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU85" t="n">
         <v>1.05</v>
@@ -18158,7 +18158,7 @@
         <v>1.25</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18561,7 +18561,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT89" t="n">
         <v>2.69</v>
@@ -18967,7 +18967,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT91" t="n">
         <v>1.94</v>
@@ -19376,7 +19376,7 @@
         <v>1.25</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -19782,7 +19782,7 @@
         <v>2.12</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU95" t="n">
         <v>1.95</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT98" t="n">
         <v>1.13</v>
@@ -21203,7 +21203,7 @@
         <v>2.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU102" t="n">
         <v>1.87</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT105" t="n">
         <v>1.4</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT107" t="n">
         <v>0.9399999999999999</v>
@@ -22824,10 +22824,10 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23027,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23639,7 +23639,7 @@
         <v>2.12</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT117" t="n">
         <v>1.12</v>
@@ -24451,7 +24451,7 @@
         <v>1.88</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT127" t="n">
         <v>1.38</v>
@@ -26684,7 +26684,7 @@
         <v>1.38</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU129" t="n">
         <v>1.43</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU133" t="n">
         <v>2.45</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT134" t="n">
         <v>1.41</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT135" t="n">
         <v>1.56</v>
@@ -28308,7 +28308,7 @@
         <v>1.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -28711,10 +28711,10 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU139" t="n">
         <v>2.15</v>
@@ -28917,7 +28917,7 @@
         <v>1.25</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU140" t="n">
         <v>1.37</v>
@@ -29523,7 +29523,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT143" t="n">
         <v>1.12</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -30541,7 +30541,7 @@
         <v>1.38</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -31553,10 +31553,10 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -31962,7 +31962,7 @@
         <v>1.25</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32568,10 +32568,10 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU158" t="n">
         <v>1.54</v>
@@ -32771,7 +32771,7 @@
         <v>0.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT159" t="n">
         <v>1.38</v>
@@ -33180,7 +33180,7 @@
         <v>1.53</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU161" t="n">
         <v>1.67</v>
@@ -33380,7 +33380,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT162" t="n">
         <v>1</v>
@@ -34398,7 +34398,7 @@
         <v>1.88</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU167" t="n">
         <v>1.49</v>
@@ -35207,7 +35207,7 @@
         <v>2.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT171" t="n">
         <v>1.82</v>
@@ -35410,10 +35410,10 @@
         <v>1.75</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU172" t="n">
         <v>2.35</v>
@@ -35613,7 +35613,7 @@
         <v>0.63</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT173" t="n">
         <v>1.38</v>
@@ -36022,7 +36022,7 @@
         <v>2.12</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU175" t="n">
         <v>1.82</v>
@@ -36222,7 +36222,7 @@
         <v>1.75</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT176" t="n">
         <v>1.94</v>
@@ -36834,7 +36834,7 @@
         <v>1.6</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37240,7 +37240,7 @@
         <v>1.27</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU181" t="n">
         <v>1.6</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT184" t="n">
         <v>1.38</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT189" t="n">
         <v>0.63</v>
@@ -39067,7 +39067,7 @@
         <v>2.12</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU190" t="n">
         <v>1.76</v>
@@ -39470,7 +39470,7 @@
         <v>0.67</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT192" t="n">
         <v>0.67</v>
@@ -39676,7 +39676,7 @@
         <v>1</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU193" t="n">
         <v>1.34</v>
@@ -40079,7 +40079,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT195" t="n">
         <v>1.4</v>
@@ -40285,7 +40285,7 @@
         <v>1.6</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU196" t="n">
         <v>1.72</v>
@@ -41094,7 +41094,7 @@
         <v>2.1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT200" t="n">
         <v>1.56</v>
@@ -41300,7 +41300,7 @@
         <v>1.53</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU201" t="n">
         <v>1.79</v>
@@ -41500,7 +41500,7 @@
         <v>0.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT202" t="n">
         <v>0.9399999999999999</v>
@@ -41706,7 +41706,7 @@
         <v>2</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU203" t="n">
         <v>1.75</v>
@@ -41906,7 +41906,7 @@
         <v>2.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT204" t="n">
         <v>1.82</v>
@@ -42515,7 +42515,7 @@
         <v>0.78</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT207" t="n">
         <v>1.13</v>
@@ -43127,7 +43127,7 @@
         <v>1.38</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU210" t="n">
         <v>1.58</v>
@@ -43330,7 +43330,7 @@
         <v>1.25</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.42</v>
@@ -44545,7 +44545,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT217" t="n">
         <v>1.38</v>
@@ -44951,7 +44951,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT219" t="n">
         <v>0.63</v>
@@ -45157,7 +45157,7 @@
         <v>1.25</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU220" t="n">
         <v>1.49</v>
@@ -45560,7 +45560,7 @@
         <v>2.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT222" t="n">
         <v>2.69</v>
@@ -46778,10 +46778,10 @@
         <v>1</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU228" t="n">
         <v>2.14</v>
@@ -46984,7 +46984,7 @@
         <v>1</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU229" t="n">
         <v>1.45</v>
@@ -47187,7 +47187,7 @@
         <v>2</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU230" t="n">
         <v>1.72</v>
@@ -47996,7 +47996,7 @@
         <v>1.55</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT234" t="n">
         <v>1.4</v>
@@ -49014,7 +49014,7 @@
         <v>1.88</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU239" t="n">
         <v>1.52</v>
@@ -49214,7 +49214,7 @@
         <v>1.83</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT240" t="n">
         <v>1.56</v>
@@ -49620,7 +49620,7 @@
         <v>1.91</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT242" t="n">
         <v>1.94</v>
@@ -49826,7 +49826,7 @@
         <v>1.38</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU243" t="n">
         <v>1.62</v>
@@ -50229,7 +50229,7 @@
         <v>1.58</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT245" t="n">
         <v>1.41</v>
@@ -50435,7 +50435,7 @@
         <v>1</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU246" t="n">
         <v>1.47</v>
@@ -50638,7 +50638,7 @@
         <v>0.5</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU247" t="n">
         <v>1.06</v>
@@ -51044,7 +51044,7 @@
         <v>2</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU249" t="n">
         <v>1.67</v>
@@ -51244,7 +51244,7 @@
         <v>0.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT250" t="n">
         <v>0.63</v>
@@ -52056,7 +52056,7 @@
         <v>1.85</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT254" t="n">
         <v>1.82</v>
@@ -52259,7 +52259,7 @@
         <v>2</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT255" t="n">
         <v>1.94</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT258" t="n">
         <v>1.2</v>
@@ -53277,7 +53277,7 @@
         <v>2.25</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU260" t="n">
         <v>1.87</v>
@@ -53480,7 +53480,7 @@
         <v>2.2</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU261" t="n">
         <v>1.83</v>
@@ -53680,7 +53680,7 @@
         <v>0.67</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT262" t="n">
         <v>0.67</v>
@@ -53886,7 +53886,7 @@
         <v>1.6</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU263" t="n">
         <v>1.88</v>
@@ -54698,7 +54698,7 @@
         <v>0.5</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU267" t="n">
         <v>1.06</v>
@@ -55101,7 +55101,7 @@
         <v>1.15</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT269" t="n">
         <v>0.9399999999999999</v>
@@ -55510,7 +55510,7 @@
         <v>2.12</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU271" t="n">
         <v>1.75</v>
@@ -55710,7 +55710,7 @@
         <v>1.71</v>
       </c>
       <c r="AS272" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT272" t="n">
         <v>1.82</v>
@@ -56119,7 +56119,7 @@
         <v>2.25</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU274" t="n">
         <v>1.91</v>
@@ -56319,7 +56319,7 @@
         <v>1.36</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT275" t="n">
         <v>1.12</v>
@@ -56728,7 +56728,7 @@
         <v>1</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU277" t="n">
         <v>1.45</v>
@@ -56931,7 +56931,7 @@
         <v>2</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU278" t="n">
         <v>1.62</v>
@@ -57131,7 +57131,7 @@
         <v>1.36</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT279" t="n">
         <v>1.41</v>
@@ -57537,7 +57537,7 @@
         <v>1.29</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT281" t="n">
         <v>1.38</v>
@@ -58149,7 +58149,7 @@
         <v>2.2</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU284" t="n">
         <v>1.87</v>
@@ -58552,7 +58552,7 @@
         <v>0.62</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT286" t="n">
         <v>0.67</v>
@@ -59570,7 +59570,7 @@
         <v>1.88</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU291" t="n">
         <v>1.53</v>
@@ -59770,10 +59770,10 @@
         <v>0.87</v>
       </c>
       <c r="AS292" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU292" t="n">
         <v>1.5</v>
@@ -60176,7 +60176,7 @@
         <v>1.47</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT294" t="n">
         <v>1.41</v>
@@ -60379,10 +60379,10 @@
         <v>0.36</v>
       </c>
       <c r="AS295" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT295" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU295" t="n">
         <v>2.11</v>
@@ -60788,7 +60788,7 @@
         <v>1</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU297" t="n">
         <v>1.37</v>
@@ -60991,7 +60991,7 @@
         <v>1.25</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU298" t="n">
         <v>1.43</v>
@@ -61191,10 +61191,10 @@
         <v>1.64</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU299" t="n">
         <v>1.52</v>
@@ -61597,7 +61597,7 @@
         <v>1.8</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT301" t="n">
         <v>1.82</v>
@@ -64697,6 +64697,1021 @@
       </c>
       <c r="BK316" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2638313</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F317" t="n">
+        <v>32</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="n">
+        <v>2</v>
+      </c>
+      <c r="M317" t="n">
+        <v>1</v>
+      </c>
+      <c r="N317" t="n">
+        <v>3</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>['82', '90+7']</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>7</v>
+      </c>
+      <c r="R317" t="n">
+        <v>5</v>
+      </c>
+      <c r="S317" t="n">
+        <v>12</v>
+      </c>
+      <c r="T317" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V317" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X317" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2638307</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F318" t="n">
+        <v>32</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>1</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="n">
+        <v>1</v>
+      </c>
+      <c r="N318" t="n">
+        <v>2</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>3</v>
+      </c>
+      <c r="R318" t="n">
+        <v>5</v>
+      </c>
+      <c r="S318" t="n">
+        <v>8</v>
+      </c>
+      <c r="T318" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V318" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X318" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2638311</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F319" t="n">
+        <v>32</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="n">
+        <v>1</v>
+      </c>
+      <c r="N319" t="n">
+        <v>2</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>10</v>
+      </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
+      <c r="S319" t="n">
+        <v>10</v>
+      </c>
+      <c r="T319" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U319" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V319" t="n">
+        <v>10</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X319" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2638308</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45046.54166666666</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="n">
+        <v>5</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>5</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['45+2', '62', '66', '76', '88']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>11</v>
+      </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
+      <c r="S320" t="n">
+        <v>11</v>
+      </c>
+      <c r="T320" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V320" t="n">
+        <v>8</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X320" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2638306</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45046.65625</v>
+      </c>
+      <c r="F321" t="n">
+        <v>32</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>1</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="n">
+        <v>1</v>
+      </c>
+      <c r="N321" t="n">
+        <v>2</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>4</v>
+      </c>
+      <c r="R321" t="n">
+        <v>5</v>
+      </c>
+      <c r="S321" t="n">
+        <v>9</v>
+      </c>
+      <c r="T321" t="n">
+        <v>4</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2</v>
+      </c>
+      <c r="V321" t="n">
+        <v>3</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X321" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK329"/>
+  <dimension ref="A1:BK331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.94</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.18</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>0.88</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT16" t="n">
         <v>1.19</v>
@@ -5775,7 +5775,7 @@
         <v>2.13</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU26" t="n">
         <v>1.74</v>
@@ -6790,7 +6790,7 @@
         <v>1.59</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU31" t="n">
         <v>3.06</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>1.19</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT37" t="n">
         <v>0.44</v>
@@ -9429,7 +9429,7 @@
         <v>1.94</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU44" t="n">
         <v>1.63</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU46" t="n">
         <v>1.12</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>1.53</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT61" t="n">
         <v>1.53</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT66" t="n">
         <v>1.5</v>
@@ -14910,7 +14910,7 @@
         <v>2.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT74" t="n">
         <v>1.41</v>
@@ -16737,7 +16737,7 @@
         <v>2.29</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
         <v>1.82</v>
@@ -18564,7 +18564,7 @@
         <v>0.63</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU89" t="n">
         <v>1.62</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT92" t="n">
         <v>1.38</v>
@@ -20391,7 +20391,7 @@
         <v>2.25</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU98" t="n">
         <v>2.36</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>1.47</v>
@@ -22624,7 +22624,7 @@
         <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU109" t="n">
         <v>2.3</v>
@@ -23839,7 +23839,7 @@
         <v>2.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT115" t="n">
         <v>1.82</v>
@@ -25060,7 +25060,7 @@
         <v>1.35</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>0.88</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT124" t="n">
         <v>0.9399999999999999</v>
@@ -25872,7 +25872,7 @@
         <v>1.69</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -28511,7 +28511,7 @@
         <v>2.12</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU138" t="n">
         <v>1.94</v>
@@ -29320,7 +29320,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT142" t="n">
         <v>0.65</v>
@@ -32368,7 +32368,7 @@
         <v>2</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU157" t="n">
         <v>1.81</v>
@@ -32977,7 +32977,7 @@
         <v>2.12</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU160" t="n">
         <v>1.92</v>
@@ -33177,7 +33177,7 @@
         <v>0.86</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT161" t="n">
         <v>0.76</v>
@@ -34601,7 +34601,7 @@
         <v>0.47</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU168" t="n">
         <v>1.22</v>
@@ -36628,10 +36628,10 @@
         <v>0.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU178" t="n">
         <v>1.74</v>
@@ -37237,7 +37237,7 @@
         <v>0.88</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT181" t="n">
         <v>0.5600000000000001</v>
@@ -37646,7 +37646,7 @@
         <v>1.24</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU183" t="n">
         <v>1.49</v>
@@ -39876,7 +39876,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT194" t="n">
         <v>1.47</v>
@@ -41297,7 +41297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT201" t="n">
         <v>0.44</v>
@@ -42112,7 +42112,7 @@
         <v>1</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU205" t="n">
         <v>1.5</v>
@@ -42518,7 +42518,7 @@
         <v>1.59</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU207" t="n">
         <v>2.14</v>
@@ -43733,7 +43733,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT213" t="n">
         <v>0.63</v>
@@ -44342,7 +44342,7 @@
         <v>0.82</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT216" t="n">
         <v>0.9399999999999999</v>
@@ -45563,7 +45563,7 @@
         <v>1.69</v>
       </c>
       <c r="AT222" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU222" t="n">
         <v>1.54</v>
@@ -45766,7 +45766,7 @@
         <v>0.47</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU223" t="n">
         <v>1.05</v>
@@ -47590,10 +47590,10 @@
         <v>2.58</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU232" t="n">
         <v>1.68</v>
@@ -48402,7 +48402,7 @@
         <v>0.64</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT236" t="n">
         <v>0.63</v>
@@ -51450,7 +51450,7 @@
         <v>1.25</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU251" t="n">
         <v>1.52</v>
@@ -51853,7 +51853,7 @@
         <v>1.23</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT253" t="n">
         <v>1.12</v>
@@ -54292,7 +54292,7 @@
         <v>1.24</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU265" t="n">
         <v>1.29</v>
@@ -54492,7 +54492,7 @@
         <v>1.46</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT266" t="n">
         <v>1.41</v>
@@ -54901,7 +54901,7 @@
         <v>1.25</v>
       </c>
       <c r="AT268" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU268" t="n">
         <v>1.52</v>
@@ -57334,7 +57334,7 @@
         <v>1.07</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT280" t="n">
         <v>0.88</v>
@@ -57946,7 +57946,7 @@
         <v>1</v>
       </c>
       <c r="AT283" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU283" t="n">
         <v>1.38</v>
@@ -58349,7 +58349,7 @@
         <v>1.15</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT285" t="n">
         <v>1.38</v>
@@ -58961,7 +58961,7 @@
         <v>1.69</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU288" t="n">
         <v>1.97</v>
@@ -61803,7 +61803,7 @@
         <v>1.18</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU302" t="n">
         <v>1.43</v>
@@ -62612,7 +62612,7 @@
         <v>1.29</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT306" t="n">
         <v>1.5</v>
@@ -63018,7 +63018,7 @@
         <v>0.67</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT308" t="n">
         <v>0.65</v>
@@ -63427,7 +63427,7 @@
         <v>2.29</v>
       </c>
       <c r="AT310" t="n">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU310" t="n">
         <v>1.85</v>
@@ -67336,6 +67336,412 @@
       </c>
       <c r="BK329" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2638322</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45050.65625</v>
+      </c>
+      <c r="F330" t="n">
+        <v>33</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>2</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>2</v>
+      </c>
+      <c r="L330" t="n">
+        <v>3</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+      <c r="N330" t="n">
+        <v>4</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>['1', '45+1', '68']</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>2</v>
+      </c>
+      <c r="R330" t="n">
+        <v>5</v>
+      </c>
+      <c r="S330" t="n">
+        <v>7</v>
+      </c>
+      <c r="T330" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V330" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X330" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2638325</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45050.65625</v>
+      </c>
+      <c r="F331" t="n">
+        <v>33</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>1</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+      <c r="N331" t="n">
+        <v>2</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>2</v>
+      </c>
+      <c r="R331" t="n">
+        <v>6</v>
+      </c>
+      <c r="S331" t="n">
+        <v>8</v>
+      </c>
+      <c r="T331" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V331" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X331" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK331"/>
+  <dimension ref="A1:BK335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT2" t="n">
         <v>1.12</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.12</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT18" t="n">
         <v>1.41</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT20" t="n">
         <v>0.65</v>
@@ -4760,7 +4760,7 @@
         <v>0.47</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -5166,7 +5166,7 @@
         <v>1.94</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU23" t="n">
         <v>1.73</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT25" t="n">
         <v>1.47</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT26" t="n">
         <v>1.06</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT34" t="n">
         <v>1.38</v>
@@ -7805,7 +7805,7 @@
         <v>0.47</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8414,7 +8414,7 @@
         <v>2.29</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT41" t="n">
         <v>1.47</v>
@@ -9023,7 +9023,7 @@
         <v>1.59</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU42" t="n">
         <v>2.22</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU43" t="n">
         <v>2.01</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT45" t="n">
         <v>0.9399999999999999</v>
@@ -11053,7 +11053,7 @@
         <v>2.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU52" t="n">
         <v>2.28</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT55" t="n">
         <v>0.65</v>
@@ -13895,7 +13895,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU66" t="n">
         <v>1.45</v>
@@ -14301,7 +14301,7 @@
         <v>1.35</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU68" t="n">
         <v>1.45</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT70" t="n">
         <v>1.82</v>
@@ -14907,7 +14907,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT71" t="n">
         <v>2.59</v>
@@ -15722,7 +15722,7 @@
         <v>1.94</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -16531,7 +16531,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT79" t="n">
         <v>1.19</v>
@@ -17143,7 +17143,7 @@
         <v>1.69</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -17343,10 +17343,10 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU83" t="n">
         <v>2.05</v>
@@ -18361,7 +18361,7 @@
         <v>1.35</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU88" t="n">
         <v>1.57</v>
@@ -18561,7 +18561,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT89" t="n">
         <v>2.59</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT90" t="n">
         <v>0.88</v>
@@ -18970,7 +18970,7 @@
         <v>1.59</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU91" t="n">
         <v>2.24</v>
@@ -19376,7 +19376,7 @@
         <v>1.25</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -19576,7 +19576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT94" t="n">
         <v>0.9399999999999999</v>
@@ -21406,7 +21406,7 @@
         <v>1.24</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT104" t="n">
         <v>1.38</v>
@@ -21812,7 +21812,7 @@
         <v>1.59</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU105" t="n">
         <v>2.27</v>
@@ -22418,10 +22418,10 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22621,7 +22621,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT109" t="n">
         <v>2.59</v>
@@ -22824,7 +22824,7 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT110" t="n">
         <v>0.5600000000000001</v>
@@ -23436,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT117" t="n">
         <v>1.12</v>
@@ -25869,7 +25869,7 @@
         <v>2.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT125" t="n">
         <v>2.59</v>
@@ -26072,10 +26072,10 @@
         <v>0</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU126" t="n">
         <v>1.98</v>
@@ -26884,10 +26884,10 @@
         <v>2.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27090,7 +27090,7 @@
         <v>2.29</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU131" t="n">
         <v>1.98</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT134" t="n">
         <v>1.41</v>
@@ -28917,7 +28917,7 @@
         <v>1.18</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU140" t="n">
         <v>1.37</v>
@@ -30132,10 +30132,10 @@
         <v>1.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -30338,7 +30338,7 @@
         <v>1.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU147" t="n">
         <v>1.41</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT149" t="n">
         <v>1.47</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT150" t="n">
         <v>1.19</v>
@@ -31150,7 +31150,7 @@
         <v>2.29</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -32165,7 +32165,7 @@
         <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU156" t="n">
         <v>1.24</v>
@@ -32365,7 +32365,7 @@
         <v>0.57</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT157" t="n">
         <v>1.06</v>
@@ -32568,10 +32568,10 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU158" t="n">
         <v>1.54</v>
@@ -33789,7 +33789,7 @@
         <v>1.35</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU164" t="n">
         <v>1.54</v>
@@ -34801,7 +34801,7 @@
         <v>2.13</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT169" t="n">
         <v>1.53</v>
@@ -35413,7 +35413,7 @@
         <v>2.25</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU172" t="n">
         <v>2.35</v>
@@ -35613,7 +35613,7 @@
         <v>0.63</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT173" t="n">
         <v>1.38</v>
@@ -36225,7 +36225,7 @@
         <v>1.69</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU176" t="n">
         <v>1.5</v>
@@ -36428,7 +36428,7 @@
         <v>1.25</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU177" t="n">
         <v>1.42</v>
@@ -36831,7 +36831,7 @@
         <v>0.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT179" t="n">
         <v>0.88</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT180" t="n">
         <v>1.19</v>
@@ -39473,7 +39473,7 @@
         <v>1.65</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU192" t="n">
         <v>1.49</v>
@@ -40079,10 +40079,10 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU195" t="n">
         <v>1.58</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT196" t="n">
         <v>0.5600000000000001</v>
@@ -40485,7 +40485,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT197" t="n">
         <v>0.9399999999999999</v>
@@ -41500,7 +41500,7 @@
         <v>0.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT202" t="n">
         <v>0.88</v>
@@ -41703,7 +41703,7 @@
         <v>1.1</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT203" t="n">
         <v>0.76</v>
@@ -42924,7 +42924,7 @@
         <v>1.18</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU209" t="n">
         <v>1.46</v>
@@ -43330,7 +43330,7 @@
         <v>1.24</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU211" t="n">
         <v>1.42</v>
@@ -43530,7 +43530,7 @@
         <v>1.36</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT212" t="n">
         <v>1.47</v>
@@ -43736,7 +43736,7 @@
         <v>1.38</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU213" t="n">
         <v>1.58</v>
@@ -45360,7 +45360,7 @@
         <v>0.47</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU221" t="n">
         <v>1.12</v>
@@ -46372,7 +46372,7 @@
         <v>1.09</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT226" t="n">
         <v>0.88</v>
@@ -46578,7 +46578,7 @@
         <v>1.24</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU227" t="n">
         <v>1.32</v>
@@ -46984,7 +46984,7 @@
         <v>1</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU229" t="n">
         <v>1.45</v>
@@ -47184,7 +47184,7 @@
         <v>0.4</v>
       </c>
       <c r="AS230" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT230" t="n">
         <v>0.44</v>
@@ -47999,7 +47999,7 @@
         <v>1.65</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU234" t="n">
         <v>1.58</v>
@@ -48405,7 +48405,7 @@
         <v>1.5</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU236" t="n">
         <v>1.9</v>
@@ -48605,7 +48605,7 @@
         <v>2</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT237" t="n">
         <v>1.82</v>
@@ -49214,7 +49214,7 @@
         <v>1.83</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT240" t="n">
         <v>1.53</v>
@@ -49623,7 +49623,7 @@
         <v>2.25</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU242" t="n">
         <v>2.2</v>
@@ -50026,7 +50026,7 @@
         <v>1.25</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT244" t="n">
         <v>1.12</v>
@@ -51041,10 +51041,10 @@
         <v>1.82</v>
       </c>
       <c r="AS249" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU249" t="n">
         <v>1.67</v>
@@ -51653,7 +51653,7 @@
         <v>1</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU252" t="n">
         <v>1.5</v>
@@ -52262,7 +52262,7 @@
         <v>1.65</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU255" t="n">
         <v>1.58</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT258" t="n">
         <v>1.19</v>
@@ -53071,7 +53071,7 @@
         <v>1</v>
       </c>
       <c r="AS259" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT259" t="n">
         <v>0.9399999999999999</v>
@@ -53477,7 +53477,7 @@
         <v>0.83</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT261" t="n">
         <v>0.88</v>
@@ -53683,7 +53683,7 @@
         <v>1.69</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU262" t="n">
         <v>1.52</v>
@@ -53883,7 +53883,7 @@
         <v>0.92</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT263" t="n">
         <v>0.76</v>
@@ -55510,7 +55510,7 @@
         <v>2.12</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU271" t="n">
         <v>1.75</v>
@@ -55710,7 +55710,7 @@
         <v>1.71</v>
       </c>
       <c r="AS272" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT272" t="n">
         <v>1.82</v>
@@ -56525,7 +56525,7 @@
         <v>1.35</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU276" t="n">
         <v>1.6</v>
@@ -56928,7 +56928,7 @@
         <v>0.62</v>
       </c>
       <c r="AS278" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT278" t="n">
         <v>0.5600000000000001</v>
@@ -57743,7 +57743,7 @@
         <v>1.24</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU282" t="n">
         <v>1.28</v>
@@ -58146,7 +58146,7 @@
         <v>0.86</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT284" t="n">
         <v>0.76</v>
@@ -58555,7 +58555,7 @@
         <v>1.59</v>
       </c>
       <c r="AT286" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU286" t="n">
         <v>2.04</v>
@@ -58958,7 +58958,7 @@
         <v>1.08</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT288" t="n">
         <v>1.06</v>
@@ -59570,7 +59570,7 @@
         <v>1.94</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU291" t="n">
         <v>1.53</v>
@@ -59770,7 +59770,7 @@
         <v>0.87</v>
       </c>
       <c r="AS292" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT292" t="n">
         <v>0.76</v>
@@ -59976,7 +59976,7 @@
         <v>1</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU293" t="n">
         <v>1.44</v>
@@ -61194,7 +61194,7 @@
         <v>1.69</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU299" t="n">
         <v>1.52</v>
@@ -61394,7 +61394,7 @@
         <v>1.27</v>
       </c>
       <c r="AS300" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT300" t="n">
         <v>1.12</v>
@@ -62412,7 +62412,7 @@
         <v>0.47</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU305" t="n">
         <v>1.1</v>
@@ -62615,7 +62615,7 @@
         <v>1.38</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU306" t="n">
         <v>1.61</v>
@@ -63221,7 +63221,7 @@
         <v>1</v>
       </c>
       <c r="AS309" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT309" t="n">
         <v>0.88</v>
@@ -63627,7 +63627,7 @@
         <v>1.67</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT311" t="n">
         <v>1.53</v>
@@ -64236,7 +64236,7 @@
         <v>1.44</v>
       </c>
       <c r="AS314" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT314" t="n">
         <v>1.41</v>
@@ -64645,7 +64645,7 @@
         <v>2.12</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU316" t="n">
         <v>1.81</v>
@@ -65048,7 +65048,7 @@
         <v>0.4</v>
       </c>
       <c r="AS318" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT318" t="n">
         <v>0.44</v>
@@ -65660,7 +65660,7 @@
         <v>1.65</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU321" t="n">
         <v>1.51</v>
@@ -66469,10 +66469,10 @@
         <v>0.67</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT325" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU325" t="n">
         <v>1.91</v>
@@ -67078,7 +67078,7 @@
         <v>0.63</v>
       </c>
       <c r="AS328" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT328" t="n">
         <v>0.65</v>
@@ -67284,7 +67284,7 @@
         <v>1.18</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU329" t="n">
         <v>1.42</v>
@@ -67742,6 +67742,818 @@
       </c>
       <c r="BK331" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2638333</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45052.41666666666</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>2</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>2</v>
+      </c>
+      <c r="L332" t="n">
+        <v>2</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>2</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['17', '29']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>6</v>
+      </c>
+      <c r="R332" t="n">
+        <v>4</v>
+      </c>
+      <c r="S332" t="n">
+        <v>10</v>
+      </c>
+      <c r="T332" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2</v>
+      </c>
+      <c r="V332" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2638332</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45052.54166666666</v>
+      </c>
+      <c r="F333" t="n">
+        <v>34</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>2</v>
+      </c>
+      <c r="N333" t="n">
+        <v>2</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['33', '74']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>12</v>
+      </c>
+      <c r="R333" t="n">
+        <v>5</v>
+      </c>
+      <c r="S333" t="n">
+        <v>17</v>
+      </c>
+      <c r="T333" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U333" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V333" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X333" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2638327</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45052.65625</v>
+      </c>
+      <c r="F334" t="n">
+        <v>34</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>2</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['41', '77']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>3</v>
+      </c>
+      <c r="R334" t="n">
+        <v>13</v>
+      </c>
+      <c r="S334" t="n">
+        <v>16</v>
+      </c>
+      <c r="T334" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2</v>
+      </c>
+      <c r="V334" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X334" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2638326</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45053.3125</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>2</v>
+      </c>
+      <c r="N335" t="n">
+        <v>2</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['56', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>7</v>
+      </c>
+      <c r="R335" t="n">
+        <v>3</v>
+      </c>
+      <c r="S335" t="n">
+        <v>10</v>
+      </c>
+      <c r="T335" t="n">
+        <v>3</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V335" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X335" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK335"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT4" t="n">
         <v>1.59</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT13" t="n">
         <v>1.82</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT15" t="n">
         <v>0.88</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.65</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1.24</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT30" t="n">
         <v>0.76</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT32" t="n">
         <v>1.41</v>
@@ -7399,7 +7399,7 @@
         <v>1.88</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU34" t="n">
         <v>2.92</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU37" t="n">
         <v>0.67</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT38" t="n">
         <v>0.88</v>
@@ -8617,7 +8617,7 @@
         <v>1.65</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -10038,7 +10038,7 @@
         <v>1.18</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT48" t="n">
         <v>1.53</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT51" t="n">
         <v>0.88</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT52" t="n">
         <v>0.59</v>
@@ -11865,7 +11865,7 @@
         <v>1.65</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU57" t="n">
         <v>1.54</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT58" t="n">
         <v>1.12</v>
@@ -12474,7 +12474,7 @@
         <v>1.94</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -12677,7 +12677,7 @@
         <v>2.29</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT61" t="n">
         <v>1.53</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -13689,7 +13689,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT65" t="n">
         <v>0.9399999999999999</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT66" t="n">
         <v>1.59</v>
@@ -14098,7 +14098,7 @@
         <v>1.59</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU67" t="n">
         <v>2.32</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT72" t="n">
         <v>1.47</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT74" t="n">
         <v>1.41</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT76" t="n">
         <v>0.65</v>
@@ -16128,7 +16128,7 @@
         <v>0.47</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU77" t="n">
         <v>1.29</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU78" t="n">
         <v>1.04</v>
@@ -16534,7 +16534,7 @@
         <v>1.59</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU79" t="n">
         <v>1.56</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT82" t="n">
         <v>1.59</v>
@@ -17549,7 +17549,7 @@
         <v>1.65</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT85" t="n">
         <v>0.76</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT86" t="n">
         <v>1.82</v>
@@ -18158,7 +18158,7 @@
         <v>1.24</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT93" t="n">
         <v>1.59</v>
@@ -19782,7 +19782,7 @@
         <v>2.12</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU95" t="n">
         <v>1.95</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT98" t="n">
         <v>1.06</v>
@@ -20997,10 +20997,10 @@
         <v>0.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU101" t="n">
         <v>1.33</v>
@@ -21609,7 +21609,7 @@
         <v>2.18</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU104" t="n">
         <v>2.04</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT106" t="n">
         <v>1.47</v>
@@ -22827,7 +22827,7 @@
         <v>0.76</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23027,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT112" t="n">
         <v>0.9399999999999999</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT113" t="n">
         <v>1.59</v>
@@ -23639,7 +23639,7 @@
         <v>2.12</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -23839,7 +23839,7 @@
         <v>2.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT115" t="n">
         <v>1.82</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -24451,7 +24451,7 @@
         <v>1.94</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -24651,7 +24651,7 @@
         <v>2.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT119" t="n">
         <v>1.41</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT122" t="n">
         <v>0.88</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT124" t="n">
         <v>0.9399999999999999</v>
@@ -26481,7 +26481,7 @@
         <v>0.47</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU128" t="n">
         <v>1.14</v>
@@ -26684,7 +26684,7 @@
         <v>1.35</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU129" t="n">
         <v>1.43</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT133" t="n">
         <v>0.76</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT135" t="n">
         <v>1.53</v>
@@ -28102,7 +28102,7 @@
         <v>2.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT136" t="n">
         <v>1.82</v>
@@ -28305,10 +28305,10 @@
         <v>0.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -28714,7 +28714,7 @@
         <v>1.59</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU139" t="n">
         <v>2.15</v>
@@ -29120,7 +29120,7 @@
         <v>1.94</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -29320,7 +29320,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT142" t="n">
         <v>0.65</v>
@@ -29523,7 +29523,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT143" t="n">
         <v>1.12</v>
@@ -30541,7 +30541,7 @@
         <v>1.35</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30947,7 +30947,7 @@
         <v>2.18</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU150" t="n">
         <v>2.09</v>
@@ -31553,10 +31553,10 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -31959,10 +31959,10 @@
         <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT156" t="n">
         <v>1.82</v>
@@ -32774,7 +32774,7 @@
         <v>1.59</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU159" t="n">
         <v>2.17</v>
@@ -33177,7 +33177,7 @@
         <v>0.86</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT161" t="n">
         <v>0.76</v>
@@ -35410,7 +35410,7 @@
         <v>1.75</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT172" t="n">
         <v>1.59</v>
@@ -35616,7 +35616,7 @@
         <v>0.76</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU173" t="n">
         <v>1.56</v>
@@ -35816,7 +35816,7 @@
         <v>1.88</v>
       </c>
       <c r="AS174" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT174" t="n">
         <v>1.41</v>
@@ -36022,7 +36022,7 @@
         <v>2.12</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU175" t="n">
         <v>1.82</v>
@@ -36222,7 +36222,7 @@
         <v>1.75</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT176" t="n">
         <v>1.82</v>
@@ -36425,7 +36425,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT177" t="n">
         <v>0.59</v>
@@ -36628,7 +36628,7 @@
         <v>0.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT178" t="n">
         <v>1.06</v>
@@ -36834,7 +36834,7 @@
         <v>1.59</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37037,7 +37037,7 @@
         <v>1.88</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU180" t="n">
         <v>1.77</v>
@@ -37237,10 +37237,10 @@
         <v>0.88</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU181" t="n">
         <v>1.6</v>
@@ -39673,10 +39673,10 @@
         <v>0.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU193" t="n">
         <v>1.34</v>
@@ -39876,7 +39876,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT194" t="n">
         <v>1.47</v>
@@ -40285,7 +40285,7 @@
         <v>1.59</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU196" t="n">
         <v>1.72</v>
@@ -40691,7 +40691,7 @@
         <v>2.29</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU198" t="n">
         <v>1.89</v>
@@ -40894,7 +40894,7 @@
         <v>1.94</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU199" t="n">
         <v>1.53</v>
@@ -41094,7 +41094,7 @@
         <v>2.1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT200" t="n">
         <v>1.53</v>
@@ -41297,10 +41297,10 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU201" t="n">
         <v>1.79</v>
@@ -41906,7 +41906,7 @@
         <v>2.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT204" t="n">
         <v>1.82</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT206" t="n">
         <v>1.12</v>
@@ -43127,7 +43127,7 @@
         <v>1.35</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU210" t="n">
         <v>1.58</v>
@@ -43733,7 +43733,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT213" t="n">
         <v>0.59</v>
@@ -43936,7 +43936,7 @@
         <v>1.91</v>
       </c>
       <c r="AS214" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT214" t="n">
         <v>1.53</v>
@@ -44342,7 +44342,7 @@
         <v>0.82</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT216" t="n">
         <v>0.9399999999999999</v>
@@ -44548,7 +44548,7 @@
         <v>1.65</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU217" t="n">
         <v>1.54</v>
@@ -44751,7 +44751,7 @@
         <v>2.29</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU218" t="n">
         <v>1.96</v>
@@ -44951,7 +44951,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT219" t="n">
         <v>0.65</v>
@@ -45157,7 +45157,7 @@
         <v>1.18</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU220" t="n">
         <v>1.49</v>
@@ -45560,7 +45560,7 @@
         <v>2.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT222" t="n">
         <v>2.59</v>
@@ -47187,7 +47187,7 @@
         <v>1.88</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU230" t="n">
         <v>1.72</v>
@@ -47387,7 +47387,7 @@
         <v>0.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT231" t="n">
         <v>0.65</v>
@@ -47590,7 +47590,7 @@
         <v>2.58</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT232" t="n">
         <v>2.59</v>
@@ -47793,7 +47793,7 @@
         <v>0.83</v>
       </c>
       <c r="AS233" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT233" t="n">
         <v>0.9399999999999999</v>
@@ -48202,7 +48202,7 @@
         <v>1.24</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU235" t="n">
         <v>1.28</v>
@@ -48402,7 +48402,7 @@
         <v>0.64</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT236" t="n">
         <v>0.59</v>
@@ -48811,7 +48811,7 @@
         <v>1.18</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU238" t="n">
         <v>1.52</v>
@@ -49014,7 +49014,7 @@
         <v>1.94</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU239" t="n">
         <v>1.52</v>
@@ -49620,7 +49620,7 @@
         <v>1.91</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT242" t="n">
         <v>1.82</v>
@@ -50435,7 +50435,7 @@
         <v>1</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU246" t="n">
         <v>1.47</v>
@@ -50638,7 +50638,7 @@
         <v>0.47</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU247" t="n">
         <v>1.06</v>
@@ -51244,7 +51244,7 @@
         <v>0.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT250" t="n">
         <v>0.65</v>
@@ -51447,7 +51447,7 @@
         <v>1.18</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT251" t="n">
         <v>1.06</v>
@@ -51853,7 +51853,7 @@
         <v>1.23</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT253" t="n">
         <v>1.12</v>
@@ -52056,7 +52056,7 @@
         <v>1.85</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT254" t="n">
         <v>1.82</v>
@@ -52462,7 +52462,7 @@
         <v>1.15</v>
       </c>
       <c r="AS256" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT256" t="n">
         <v>1.47</v>
@@ -52668,7 +52668,7 @@
         <v>1.18</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU257" t="n">
         <v>1.52</v>
@@ -52871,7 +52871,7 @@
         <v>0.76</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU258" t="n">
         <v>1.49</v>
@@ -53277,7 +53277,7 @@
         <v>2.29</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU260" t="n">
         <v>1.87</v>
@@ -53480,7 +53480,7 @@
         <v>2.18</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU261" t="n">
         <v>1.83</v>
@@ -53680,7 +53680,7 @@
         <v>0.67</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT262" t="n">
         <v>0.59</v>
@@ -54492,7 +54492,7 @@
         <v>1.46</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT266" t="n">
         <v>1.41</v>
@@ -54698,7 +54698,7 @@
         <v>0.47</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU267" t="n">
         <v>1.06</v>
@@ -54898,7 +54898,7 @@
         <v>2.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT268" t="n">
         <v>2.59</v>
@@ -55916,7 +55916,7 @@
         <v>2.12</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU273" t="n">
         <v>1.77</v>
@@ -56119,7 +56119,7 @@
         <v>2.29</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU274" t="n">
         <v>1.91</v>
@@ -56728,7 +56728,7 @@
         <v>1</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU277" t="n">
         <v>1.45</v>
@@ -56931,7 +56931,7 @@
         <v>1.88</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU278" t="n">
         <v>1.62</v>
@@ -57131,7 +57131,7 @@
         <v>1.36</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT279" t="n">
         <v>1.41</v>
@@ -57334,7 +57334,7 @@
         <v>1.07</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT280" t="n">
         <v>0.88</v>
@@ -57537,7 +57537,7 @@
         <v>1.29</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT281" t="n">
         <v>1.47</v>
@@ -57943,7 +57943,7 @@
         <v>2.64</v>
       </c>
       <c r="AS283" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT283" t="n">
         <v>2.59</v>
@@ -58349,10 +58349,10 @@
         <v>1.15</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU285" t="n">
         <v>1.87</v>
@@ -59161,7 +59161,7 @@
         <v>1.57</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT289" t="n">
         <v>1.53</v>
@@ -60379,10 +60379,10 @@
         <v>0.36</v>
       </c>
       <c r="AS295" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT295" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU295" t="n">
         <v>2.11</v>
@@ -60585,7 +60585,7 @@
         <v>2.12</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU296" t="n">
         <v>1.75</v>
@@ -60785,10 +60785,10 @@
         <v>0.57</v>
       </c>
       <c r="AS297" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU297" t="n">
         <v>1.37</v>
@@ -60988,10 +60988,10 @@
         <v>0.86</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU298" t="n">
         <v>1.43</v>
@@ -61191,7 +61191,7 @@
         <v>1.64</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT299" t="n">
         <v>1.59</v>
@@ -62612,7 +62612,7 @@
         <v>1.29</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT306" t="n">
         <v>1.59</v>
@@ -62818,7 +62818,7 @@
         <v>1.35</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU307" t="n">
         <v>1.57</v>
@@ -63018,7 +63018,7 @@
         <v>0.67</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT308" t="n">
         <v>0.65</v>
@@ -63830,7 +63830,7 @@
         <v>1.19</v>
       </c>
       <c r="AS312" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT312" t="n">
         <v>1.12</v>
@@ -64036,7 +64036,7 @@
         <v>1</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU313" t="n">
         <v>1.41</v>
@@ -64439,7 +64439,7 @@
         <v>1.75</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT315" t="n">
         <v>1.82</v>
@@ -64845,7 +64845,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT317" t="n">
         <v>0.76</v>
@@ -65051,7 +65051,7 @@
         <v>0.76</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU318" t="n">
         <v>1.5</v>
@@ -65251,10 +65251,10 @@
         <v>0.87</v>
       </c>
       <c r="AS319" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT319" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU319" t="n">
         <v>2.05</v>
@@ -65457,7 +65457,7 @@
         <v>1.59</v>
       </c>
       <c r="AT320" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU320" t="n">
         <v>2.01</v>
@@ -65863,7 +65863,7 @@
         <v>1.24</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU322" t="n">
         <v>1.3</v>
@@ -67484,7 +67484,7 @@
         <v>1.13</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT330" t="n">
         <v>1.06</v>
@@ -67687,7 +67687,7 @@
         <v>2.69</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT331" t="n">
         <v>2.59</v>
@@ -68553,6 +68553,1224 @@
         <v>26</v>
       </c>
       <c r="BK335" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2638334</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F336" t="n">
+        <v>34</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="n">
+        <v>1</v>
+      </c>
+      <c r="N336" t="n">
+        <v>2</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>7</v>
+      </c>
+      <c r="R336" t="n">
+        <v>4</v>
+      </c>
+      <c r="S336" t="n">
+        <v>11</v>
+      </c>
+      <c r="T336" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V336" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X336" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2638330</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45053.54166666666</v>
+      </c>
+      <c r="F337" t="n">
+        <v>34</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>1</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="n">
+        <v>5</v>
+      </c>
+      <c r="S337" t="n">
+        <v>5</v>
+      </c>
+      <c r="T337" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V337" t="n">
+        <v>5</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X337" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2638331</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45053.65625</v>
+      </c>
+      <c r="F338" t="n">
+        <v>34</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>1</v>
+      </c>
+      <c r="N338" t="n">
+        <v>1</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>4</v>
+      </c>
+      <c r="R338" t="n">
+        <v>4</v>
+      </c>
+      <c r="S338" t="n">
+        <v>8</v>
+      </c>
+      <c r="T338" t="n">
+        <v>3</v>
+      </c>
+      <c r="U338" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V338" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X338" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2638328</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45054.5625</v>
+      </c>
+      <c r="F339" t="n">
+        <v>34</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="n">
+        <v>2</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>3</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>['37', '63']</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>8</v>
+      </c>
+      <c r="R339" t="n">
+        <v>7</v>
+      </c>
+      <c r="S339" t="n">
+        <v>15</v>
+      </c>
+      <c r="T339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V339" t="n">
+        <v>4</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2638335</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45054.5625</v>
+      </c>
+      <c r="F340" t="n">
+        <v>34</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>2</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>2</v>
+      </c>
+      <c r="L340" t="n">
+        <v>2</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>2</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['9', '34']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>7</v>
+      </c>
+      <c r="R340" t="n">
+        <v>3</v>
+      </c>
+      <c r="S340" t="n">
+        <v>10</v>
+      </c>
+      <c r="T340" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V340" t="n">
+        <v>6</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X340" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2638329</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45054.65625</v>
+      </c>
+      <c r="F341" t="n">
+        <v>34</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>1</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1</v>
+      </c>
+      <c r="K341" t="n">
+        <v>2</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>1</v>
+      </c>
+      <c r="N341" t="n">
+        <v>2</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>4</v>
+      </c>
+      <c r="R341" t="n">
+        <v>4</v>
+      </c>
+      <c r="S341" t="n">
+        <v>8</v>
+      </c>
+      <c r="T341" t="n">
+        <v>3</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V341" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X341" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK341" t="n">
         <v>13</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT7" t="n">
         <v>1.06</v>
@@ -3542,7 +3542,7 @@
         <v>1.65</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT23" t="n">
         <v>1.59</v>
@@ -8211,7 +8211,7 @@
         <v>2.29</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU38" t="n">
         <v>2.3</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT44" t="n">
         <v>2.59</v>
@@ -10850,7 +10850,7 @@
         <v>1.24</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU51" t="n">
         <v>1.16</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT59" t="n">
         <v>0.59</v>
@@ -13083,7 +13083,7 @@
         <v>1.24</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT75" t="n">
         <v>0.59</v>
@@ -18767,7 +18767,7 @@
         <v>1.88</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU90" t="n">
         <v>2.23</v>
@@ -20185,7 +20185,7 @@
         <v>2.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT97" t="n">
         <v>1.12</v>
@@ -22218,7 +22218,7 @@
         <v>1.65</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU107" t="n">
         <v>1.57</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT118" t="n">
         <v>0.82</v>
@@ -25263,7 +25263,7 @@
         <v>1.59</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU122" t="n">
         <v>1.61</v>
@@ -29117,7 +29117,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT141" t="n">
         <v>1.35</v>
@@ -29729,7 +29729,7 @@
         <v>0.47</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU144" t="n">
         <v>1.17</v>
@@ -34195,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU166" t="n">
         <v>1.58</v>
@@ -34395,7 +34395,7 @@
         <v>0.88</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT167" t="n">
         <v>0.76</v>
@@ -37443,7 +37443,7 @@
         <v>1.18</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU182" t="n">
         <v>1.47</v>
@@ -39267,7 +39267,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT191" t="n">
         <v>1.41</v>
@@ -40891,7 +40891,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT199" t="n">
         <v>1.12</v>
@@ -41503,7 +41503,7 @@
         <v>0.76</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU202" t="n">
         <v>1.57</v>
@@ -44139,7 +44139,7 @@
         <v>1.91</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT215" t="n">
         <v>1.82</v>
@@ -46375,7 +46375,7 @@
         <v>1.59</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU226" t="n">
         <v>1.78</v>
@@ -49011,7 +49011,7 @@
         <v>0.73</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT239" t="n">
         <v>0.53</v>
@@ -50841,7 +50841,7 @@
         <v>2.12</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU248" t="n">
         <v>1.74</v>
@@ -55104,7 +55104,7 @@
         <v>1.59</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU269" t="n">
         <v>2.08</v>
@@ -55304,7 +55304,7 @@
         <v>1.69</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT270" t="n">
         <v>1.53</v>
@@ -57337,7 +57337,7 @@
         <v>1.47</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU280" t="n">
         <v>1.61</v>
@@ -59567,7 +59567,7 @@
         <v>1.77</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT291" t="n">
         <v>1.59</v>
@@ -62206,7 +62206,7 @@
         <v>1.27</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT304" t="n">
         <v>1.47</v>
@@ -63224,7 +63224,7 @@
         <v>2.18</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU309" t="n">
         <v>1.89</v>
@@ -66066,7 +66066,7 @@
         <v>2.29</v>
       </c>
       <c r="AT323" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU323" t="n">
         <v>1.81</v>
@@ -66672,7 +66672,7 @@
         <v>1</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT326" t="n">
         <v>0.9399999999999999</v>
@@ -69772,6 +69772,209 @@
       </c>
       <c r="BK341" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2638340</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45058.65625</v>
+      </c>
+      <c r="F342" t="n">
+        <v>35</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2</v>
+      </c>
+      <c r="L342" t="n">
+        <v>2</v>
+      </c>
+      <c r="M342" t="n">
+        <v>2</v>
+      </c>
+      <c r="N342" t="n">
+        <v>4</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['34', '90+4']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['45+2', '51']</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>2</v>
+      </c>
+      <c r="R342" t="n">
+        <v>3</v>
+      </c>
+      <c r="S342" t="n">
+        <v>5</v>
+      </c>
+      <c r="T342" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V342" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X342" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK351"/>
+  <dimension ref="A1:BK356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT2" t="n">
         <v>1.06</v>
@@ -1918,7 +1918,7 @@
         <v>1.89</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.17</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT15" t="n">
         <v>0.89</v>
@@ -3948,7 +3948,7 @@
         <v>2.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4354,7 +4354,7 @@
         <v>1.61</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT25" t="n">
         <v>1.56</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU26" t="n">
         <v>1.74</v>
@@ -6384,7 +6384,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.46</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT32" t="n">
         <v>1.33</v>
@@ -7399,7 +7399,7 @@
         <v>1.88</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU34" t="n">
         <v>2.92</v>
@@ -8008,7 +8008,7 @@
         <v>1.47</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37" t="n">
         <v>0.67</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT41" t="n">
         <v>1.56</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT43" t="n">
         <v>1.59</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT45" t="n">
         <v>0.89</v>
@@ -9835,7 +9835,7 @@
         <v>1.11</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU46" t="n">
         <v>1.12</v>
@@ -10038,7 +10038,7 @@
         <v>1.11</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -11053,7 +11053,7 @@
         <v>2.29</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU52" t="n">
         <v>2.28</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.61</v>
@@ -12068,7 +12068,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU57" t="n">
         <v>1.54</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT58" t="n">
         <v>1.06</v>
@@ -12474,7 +12474,7 @@
         <v>1.89</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU59" t="n">
         <v>1.41</v>
@@ -13489,7 +13489,7 @@
         <v>1.11</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.4</v>
@@ -14098,7 +14098,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU67" t="n">
         <v>2.32</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT69" t="n">
         <v>1.82</v>
@@ -14907,7 +14907,7 @@
         <v>2.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT71" t="n">
         <v>2.44</v>
@@ -15722,7 +15722,7 @@
         <v>1.89</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -16128,7 +16128,7 @@
         <v>0.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU77" t="n">
         <v>1.29</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT78" t="n">
         <v>0.82</v>
@@ -16531,7 +16531,7 @@
         <v>0.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
         <v>1.12</v>
@@ -16737,7 +16737,7 @@
         <v>2.33</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU80" t="n">
         <v>1.82</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT82" t="n">
         <v>1.59</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT83" t="n">
         <v>1.59</v>
@@ -17549,7 +17549,7 @@
         <v>1.61</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.67</v>
@@ -18158,7 +18158,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18361,7 +18361,7 @@
         <v>1.44</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU88" t="n">
         <v>1.57</v>
@@ -18561,7 +18561,7 @@
         <v>2.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT89" t="n">
         <v>2.44</v>
@@ -19173,7 +19173,7 @@
         <v>1.47</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19576,7 +19576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
         <v>0.89</v>
@@ -20391,7 +20391,7 @@
         <v>2.29</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU98" t="n">
         <v>2.36</v>
@@ -21406,7 +21406,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU103" t="n">
         <v>1.63</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU104" t="n">
         <v>2.04</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT108" t="n">
         <v>1.82</v>
@@ -22824,10 +22824,10 @@
         <v>0.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.57</v>
@@ -23027,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23639,7 +23639,7 @@
         <v>2.17</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.95</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT117" t="n">
         <v>1.06</v>
@@ -25060,7 +25060,7 @@
         <v>1.44</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25869,7 +25869,7 @@
         <v>2.67</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT125" t="n">
         <v>2.44</v>
@@ -26072,10 +26072,10 @@
         <v>0</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU126" t="n">
         <v>1.98</v>
@@ -26684,7 +26684,7 @@
         <v>1.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU129" t="n">
         <v>1.43</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT134" t="n">
         <v>1.33</v>
@@ -27899,7 +27899,7 @@
         <v>2.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT135" t="n">
         <v>1.5</v>
@@ -28308,7 +28308,7 @@
         <v>1.24</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU137" t="n">
         <v>1.46</v>
@@ -28511,7 +28511,7 @@
         <v>2.17</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU138" t="n">
         <v>1.94</v>
@@ -29120,7 +29120,7 @@
         <v>1.89</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU141" t="n">
         <v>1.51</v>
@@ -30132,7 +30132,7 @@
         <v>1.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT146" t="n">
         <v>1.59</v>
@@ -30338,7 +30338,7 @@
         <v>1.11</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU147" t="n">
         <v>1.41</v>
@@ -30944,7 +30944,7 @@
         <v>1.14</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT150" t="n">
         <v>1.12</v>
@@ -31553,10 +31553,10 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -31962,7 +31962,7 @@
         <v>1.24</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32368,7 +32368,7 @@
         <v>1.88</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU157" t="n">
         <v>1.81</v>
@@ -32568,7 +32568,7 @@
         <v>1.57</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT158" t="n">
         <v>1.59</v>
@@ -32774,7 +32774,7 @@
         <v>1.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU159" t="n">
         <v>2.17</v>
@@ -34801,7 +34801,7 @@
         <v>2.13</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT169" t="n">
         <v>1.5</v>
@@ -35613,10 +35613,10 @@
         <v>0.63</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU173" t="n">
         <v>1.56</v>
@@ -36022,7 +36022,7 @@
         <v>2.17</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU175" t="n">
         <v>1.82</v>
@@ -36222,7 +36222,7 @@
         <v>1.75</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT176" t="n">
         <v>1.82</v>
@@ -36428,7 +36428,7 @@
         <v>1.24</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU177" t="n">
         <v>1.42</v>
@@ -36631,7 +36631,7 @@
         <v>1.59</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU178" t="n">
         <v>1.74</v>
@@ -36831,7 +36831,7 @@
         <v>0.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT179" t="n">
         <v>0.82</v>
@@ -37240,7 +37240,7 @@
         <v>1.47</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU181" t="n">
         <v>1.6</v>
@@ -39473,7 +39473,7 @@
         <v>1.61</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU192" t="n">
         <v>1.49</v>
@@ -40079,7 +40079,7 @@
         <v>1.44</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT195" t="n">
         <v>1.59</v>
@@ -40282,10 +40282,10 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU196" t="n">
         <v>1.72</v>
@@ -40485,7 +40485,7 @@
         <v>0.6</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT197" t="n">
         <v>0.89</v>
@@ -40691,7 +40691,7 @@
         <v>2.33</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU198" t="n">
         <v>1.89</v>
@@ -41300,7 +41300,7 @@
         <v>1.59</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU201" t="n">
         <v>1.79</v>
@@ -41500,7 +41500,7 @@
         <v>0.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT202" t="n">
         <v>0.89</v>
@@ -41906,7 +41906,7 @@
         <v>2.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT204" t="n">
         <v>1.72</v>
@@ -42518,7 +42518,7 @@
         <v>1.67</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU207" t="n">
         <v>2.14</v>
@@ -43127,7 +43127,7 @@
         <v>1.44</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU210" t="n">
         <v>1.58</v>
@@ -43530,7 +43530,7 @@
         <v>1.36</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT212" t="n">
         <v>1.56</v>
@@ -43736,7 +43736,7 @@
         <v>1.47</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU213" t="n">
         <v>1.58</v>
@@ -44548,7 +44548,7 @@
         <v>1.61</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU217" t="n">
         <v>1.54</v>
@@ -45560,7 +45560,7 @@
         <v>2.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT222" t="n">
         <v>2.44</v>
@@ -45766,7 +45766,7 @@
         <v>0.5</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU223" t="n">
         <v>1.05</v>
@@ -46372,7 +46372,7 @@
         <v>1.09</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT226" t="n">
         <v>0.89</v>
@@ -47187,7 +47187,7 @@
         <v>1.88</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU230" t="n">
         <v>1.72</v>
@@ -48202,7 +48202,7 @@
         <v>1.33</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU235" t="n">
         <v>1.28</v>
@@ -48405,7 +48405,7 @@
         <v>1.59</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU236" t="n">
         <v>1.9</v>
@@ -48605,7 +48605,7 @@
         <v>2</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT237" t="n">
         <v>1.72</v>
@@ -49014,7 +49014,7 @@
         <v>1.89</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU239" t="n">
         <v>1.52</v>
@@ -49214,7 +49214,7 @@
         <v>1.83</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT240" t="n">
         <v>1.5</v>
@@ -50026,7 +50026,7 @@
         <v>1.25</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT244" t="n">
         <v>1.06</v>
@@ -50435,7 +50435,7 @@
         <v>1.11</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU246" t="n">
         <v>1.47</v>
@@ -51244,7 +51244,7 @@
         <v>0.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT250" t="n">
         <v>0.61</v>
@@ -51450,7 +51450,7 @@
         <v>1.24</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU251" t="n">
         <v>1.52</v>
@@ -52668,7 +52668,7 @@
         <v>1.11</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU257" t="n">
         <v>1.52</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT258" t="n">
         <v>1.12</v>
@@ -53277,7 +53277,7 @@
         <v>2.33</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU260" t="n">
         <v>1.87</v>
@@ -53477,7 +53477,7 @@
         <v>0.83</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT261" t="n">
         <v>0.82</v>
@@ -53680,10 +53680,10 @@
         <v>0.67</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU262" t="n">
         <v>1.52</v>
@@ -53883,7 +53883,7 @@
         <v>0.92</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT263" t="n">
         <v>0.78</v>
@@ -54292,7 +54292,7 @@
         <v>1.33</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU265" t="n">
         <v>1.29</v>
@@ -54698,7 +54698,7 @@
         <v>0.5</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU267" t="n">
         <v>1.06</v>
@@ -55710,7 +55710,7 @@
         <v>1.71</v>
       </c>
       <c r="AS272" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT272" t="n">
         <v>1.72</v>
@@ -56119,7 +56119,7 @@
         <v>2.33</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU274" t="n">
         <v>1.91</v>
@@ -56931,7 +56931,7 @@
         <v>1.88</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU278" t="n">
         <v>1.62</v>
@@ -57537,7 +57537,7 @@
         <v>1.29</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT281" t="n">
         <v>1.56</v>
@@ -58146,7 +58146,7 @@
         <v>0.86</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT284" t="n">
         <v>0.78</v>
@@ -58352,7 +58352,7 @@
         <v>1.59</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU285" t="n">
         <v>1.87</v>
@@ -58555,7 +58555,7 @@
         <v>1.67</v>
       </c>
       <c r="AT286" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU286" t="n">
         <v>2.04</v>
@@ -58958,10 +58958,10 @@
         <v>1.08</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU288" t="n">
         <v>1.97</v>
@@ -59770,7 +59770,7 @@
         <v>0.87</v>
       </c>
       <c r="AS292" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT292" t="n">
         <v>0.78</v>
@@ -60382,7 +60382,7 @@
         <v>2.29</v>
       </c>
       <c r="AT295" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU295" t="n">
         <v>2.11</v>
@@ -60585,7 +60585,7 @@
         <v>2.17</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU296" t="n">
         <v>1.75</v>
@@ -60788,7 +60788,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU297" t="n">
         <v>1.37</v>
@@ -61191,7 +61191,7 @@
         <v>1.64</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT299" t="n">
         <v>1.59</v>
@@ -61803,7 +61803,7 @@
         <v>1.11</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU302" t="n">
         <v>1.43</v>
@@ -62412,7 +62412,7 @@
         <v>0.5</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU305" t="n">
         <v>1.1</v>
@@ -63221,7 +63221,7 @@
         <v>1</v>
       </c>
       <c r="AS309" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT309" t="n">
         <v>0.89</v>
@@ -63627,7 +63627,7 @@
         <v>1.67</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT311" t="n">
         <v>1.5</v>
@@ -64036,7 +64036,7 @@
         <v>1.11</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU313" t="n">
         <v>1.41</v>
@@ -64845,7 +64845,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT317" t="n">
         <v>0.78</v>
@@ -65048,10 +65048,10 @@
         <v>0.4</v>
       </c>
       <c r="AS318" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU318" t="n">
         <v>1.5</v>
@@ -65457,7 +65457,7 @@
         <v>1.67</v>
       </c>
       <c r="AT320" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU320" t="n">
         <v>2.01</v>
@@ -66469,10 +66469,10 @@
         <v>0.67</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT325" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU325" t="n">
         <v>1.91</v>
@@ -67078,7 +67078,7 @@
         <v>0.63</v>
       </c>
       <c r="AS328" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT328" t="n">
         <v>0.61</v>
@@ -67487,7 +67487,7 @@
         <v>1.47</v>
       </c>
       <c r="AT330" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU330" t="n">
         <v>1.57</v>
@@ -67890,7 +67890,7 @@
         <v>1.94</v>
       </c>
       <c r="AS332" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT332" t="n">
         <v>1.82</v>
@@ -68296,10 +68296,10 @@
         <v>0.63</v>
       </c>
       <c r="AS334" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT334" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU334" t="n">
         <v>1.49</v>
@@ -68499,7 +68499,7 @@
         <v>1.5</v>
       </c>
       <c r="AS335" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT335" t="n">
         <v>1.59</v>
@@ -68705,7 +68705,7 @@
         <v>1.24</v>
       </c>
       <c r="AT336" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU336" t="n">
         <v>1.43</v>
@@ -69111,7 +69111,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT338" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU338" t="n">
         <v>1.45</v>
@@ -69517,7 +69517,7 @@
         <v>1.59</v>
       </c>
       <c r="AT340" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU340" t="n">
         <v>1.79</v>
@@ -69717,10 +69717,10 @@
         <v>1.06</v>
       </c>
       <c r="AS341" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AU341" t="n">
         <v>1.51</v>
@@ -71802,6 +71802,1021 @@
       </c>
       <c r="BK351" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2638355</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45065.65625</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="n">
+        <v>2</v>
+      </c>
+      <c r="N352" t="n">
+        <v>3</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['60', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>6</v>
+      </c>
+      <c r="R352" t="n">
+        <v>3</v>
+      </c>
+      <c r="S352" t="n">
+        <v>9</v>
+      </c>
+      <c r="T352" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V352" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X352" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2638351</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45066.41666666666</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" t="n">
+        <v>3</v>
+      </c>
+      <c r="K353" t="n">
+        <v>3</v>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="n">
+        <v>5</v>
+      </c>
+      <c r="N353" t="n">
+        <v>6</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>['14', '27', '45+1', '62', '80']</t>
+        </is>
+      </c>
+      <c r="Q353" t="n">
+        <v>3</v>
+      </c>
+      <c r="R353" t="n">
+        <v>9</v>
+      </c>
+      <c r="S353" t="n">
+        <v>12</v>
+      </c>
+      <c r="T353" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V353" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X353" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ353" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA353" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB353" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BC353" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD353" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE353" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF353" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG353" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH353" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ353" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK353" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2638346</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45066.54166666666</v>
+      </c>
+      <c r="F354" t="n">
+        <v>36</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>1</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1</v>
+      </c>
+      <c r="K354" t="n">
+        <v>2</v>
+      </c>
+      <c r="L354" t="n">
+        <v>3</v>
+      </c>
+      <c r="M354" t="n">
+        <v>1</v>
+      </c>
+      <c r="N354" t="n">
+        <v>4</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>['22', '53', '62']</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q354" t="n">
+        <v>6</v>
+      </c>
+      <c r="R354" t="n">
+        <v>3</v>
+      </c>
+      <c r="S354" t="n">
+        <v>9</v>
+      </c>
+      <c r="T354" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V354" t="n">
+        <v>6</v>
+      </c>
+      <c r="W354" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X354" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ354" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA354" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB354" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC354" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD354" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE354" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF354" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG354" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH354" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ354" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK354" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2638349</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45066.65625</v>
+      </c>
+      <c r="F355" t="n">
+        <v>36</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>3</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1</v>
+      </c>
+      <c r="K355" t="n">
+        <v>4</v>
+      </c>
+      <c r="L355" t="n">
+        <v>5</v>
+      </c>
+      <c r="M355" t="n">
+        <v>1</v>
+      </c>
+      <c r="N355" t="n">
+        <v>6</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>['9', '23', '29', '63', '68']</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>7</v>
+      </c>
+      <c r="R355" t="n">
+        <v>2</v>
+      </c>
+      <c r="S355" t="n">
+        <v>9</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V355" t="n">
+        <v>12</v>
+      </c>
+      <c r="W355" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X355" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ355" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA355" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB355" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC355" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD355" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE355" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF355" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG355" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH355" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ355" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK355" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2638348</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45067.3125</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>0</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>2</v>
+      </c>
+      <c r="R356" t="n">
+        <v>5</v>
+      </c>
+      <c r="S356" t="n">
+        <v>7</v>
+      </c>
+      <c r="T356" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2</v>
+      </c>
+      <c r="V356" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X356" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK356"/>
+  <dimension ref="A1:BK360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.47</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT17" t="n">
         <v>1.44</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT20" t="n">
         <v>0.61</v>
@@ -5166,7 +5166,7 @@
         <v>1.89</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.73</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT34" t="n">
         <v>1.44</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -7805,7 +7805,7 @@
         <v>0.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT38" t="n">
         <v>0.89</v>
@@ -8617,7 +8617,7 @@
         <v>1.61</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -9226,7 +9226,7 @@
         <v>2.22</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>2.01</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>1.5</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT51" t="n">
         <v>0.89</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT52" t="n">
         <v>0.61</v>
@@ -11865,7 +11865,7 @@
         <v>1.61</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12677,7 +12677,7 @@
         <v>2.33</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -13689,7 +13689,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT65" t="n">
         <v>0.89</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.45</v>
@@ -14504,7 +14504,7 @@
         <v>0.72</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT70" t="n">
         <v>1.72</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT72" t="n">
         <v>1.56</v>
@@ -16331,7 +16331,7 @@
         <v>1.56</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU78" t="n">
         <v>1.04</v>
@@ -16534,7 +16534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU79" t="n">
         <v>1.56</v>
@@ -17143,7 +17143,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT85" t="n">
         <v>0.78</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
         <v>1.72</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT90" t="n">
         <v>0.89</v>
@@ -18970,7 +18970,7 @@
         <v>1.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU91" t="n">
         <v>2.24</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT93" t="n">
         <v>1.59</v>
@@ -19782,7 +19782,7 @@
         <v>2.17</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU95" t="n">
         <v>1.95</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT98" t="n">
         <v>1.17</v>
@@ -21000,7 +21000,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU101" t="n">
         <v>1.33</v>
@@ -21812,7 +21812,7 @@
         <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>2.27</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>1.56</v>
@@ -22421,7 +22421,7 @@
         <v>1.67</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22621,7 +22621,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT109" t="n">
         <v>2.44</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT112" t="n">
         <v>0.89</v>
@@ -24045,7 +24045,7 @@
         <v>1.11</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU116" t="n">
         <v>1.56</v>
@@ -24451,7 +24451,7 @@
         <v>1.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -24651,7 +24651,7 @@
         <v>2.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT119" t="n">
         <v>1.33</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>0.89</v>
@@ -26481,7 +26481,7 @@
         <v>0.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU128" t="n">
         <v>1.14</v>
@@ -26884,10 +26884,10 @@
         <v>2.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27090,7 +27090,7 @@
         <v>2.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.98</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT133" t="n">
         <v>0.78</v>
@@ -28305,7 +28305,7 @@
         <v>0.67</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT137" t="n">
         <v>0.5</v>
@@ -28714,7 +28714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU139" t="n">
         <v>2.15</v>
@@ -29523,7 +29523,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT143" t="n">
         <v>1.06</v>
@@ -30135,7 +30135,7 @@
         <v>1.67</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU146" t="n">
         <v>1.59</v>
@@ -30541,7 +30541,7 @@
         <v>1.44</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT149" t="n">
         <v>1.56</v>
@@ -30947,7 +30947,7 @@
         <v>2.22</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU150" t="n">
         <v>2.09</v>
@@ -31150,7 +31150,7 @@
         <v>2.33</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -31959,7 +31959,7 @@
         <v>0.29</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT155" t="n">
         <v>0.5600000000000001</v>
@@ -32165,7 +32165,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU156" t="n">
         <v>1.24</v>
@@ -32365,7 +32365,7 @@
         <v>0.57</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT157" t="n">
         <v>1.17</v>
@@ -33177,7 +33177,7 @@
         <v>0.86</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT161" t="n">
         <v>0.78</v>
@@ -33789,7 +33789,7 @@
         <v>1.44</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU164" t="n">
         <v>1.54</v>
@@ -35410,7 +35410,7 @@
         <v>1.75</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT172" t="n">
         <v>1.59</v>
@@ -36225,7 +36225,7 @@
         <v>1.56</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU176" t="n">
         <v>1.5</v>
@@ -36425,7 +36425,7 @@
         <v>0.38</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT177" t="n">
         <v>0.61</v>
@@ -36628,7 +36628,7 @@
         <v>0.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT178" t="n">
         <v>1.17</v>
@@ -36834,7 +36834,7 @@
         <v>1.67</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37034,10 +37034,10 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU180" t="n">
         <v>1.77</v>
@@ -39676,7 +39676,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU193" t="n">
         <v>1.34</v>
@@ -40082,7 +40082,7 @@
         <v>0.72</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU195" t="n">
         <v>1.58</v>
@@ -40894,7 +40894,7 @@
         <v>1.89</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU199" t="n">
         <v>1.53</v>
@@ -41094,7 +41094,7 @@
         <v>2.1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT200" t="n">
         <v>1.5</v>
@@ -41297,7 +41297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT201" t="n">
         <v>0.5600000000000001</v>
@@ -41703,7 +41703,7 @@
         <v>1.1</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT203" t="n">
         <v>0.78</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT206" t="n">
         <v>1.06</v>
@@ -42924,7 +42924,7 @@
         <v>1.11</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU209" t="n">
         <v>1.46</v>
@@ -44342,7 +44342,7 @@
         <v>0.82</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT216" t="n">
         <v>0.89</v>
@@ -44751,7 +44751,7 @@
         <v>2.33</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU218" t="n">
         <v>1.96</v>
@@ -44951,7 +44951,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT219" t="n">
         <v>0.61</v>
@@ -45157,7 +45157,7 @@
         <v>1.11</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU220" t="n">
         <v>1.49</v>
@@ -45360,7 +45360,7 @@
         <v>0.5</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU221" t="n">
         <v>1.12</v>
@@ -46578,7 +46578,7 @@
         <v>1.33</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU227" t="n">
         <v>1.32</v>
@@ -47184,7 +47184,7 @@
         <v>0.4</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT230" t="n">
         <v>0.5600000000000001</v>
@@ -47387,7 +47387,7 @@
         <v>0.45</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT231" t="n">
         <v>0.61</v>
@@ -47999,7 +47999,7 @@
         <v>1.61</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU234" t="n">
         <v>1.58</v>
@@ -48402,7 +48402,7 @@
         <v>0.64</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT236" t="n">
         <v>0.61</v>
@@ -48811,7 +48811,7 @@
         <v>1.11</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU238" t="n">
         <v>1.52</v>
@@ -49620,10 +49620,10 @@
         <v>1.91</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU242" t="n">
         <v>2.2</v>
@@ -50638,7 +50638,7 @@
         <v>0.5</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU247" t="n">
         <v>1.06</v>
@@ -51041,7 +51041,7 @@
         <v>1.82</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT249" t="n">
         <v>1.59</v>
@@ -51447,7 +51447,7 @@
         <v>1.18</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT251" t="n">
         <v>1.17</v>
@@ -51653,7 +51653,7 @@
         <v>1.11</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU252" t="n">
         <v>1.5</v>
@@ -52056,7 +52056,7 @@
         <v>1.85</v>
       </c>
       <c r="AS254" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT254" t="n">
         <v>1.72</v>
@@ -52262,7 +52262,7 @@
         <v>1.61</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU255" t="n">
         <v>1.58</v>
@@ -52871,7 +52871,7 @@
         <v>0.72</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU258" t="n">
         <v>1.49</v>
@@ -53071,7 +53071,7 @@
         <v>1</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT259" t="n">
         <v>0.89</v>
@@ -53480,7 +53480,7 @@
         <v>2.22</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU261" t="n">
         <v>1.83</v>
@@ -54492,7 +54492,7 @@
         <v>1.46</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT266" t="n">
         <v>1.33</v>
@@ -54898,7 +54898,7 @@
         <v>2.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT268" t="n">
         <v>2.44</v>
@@ -55916,7 +55916,7 @@
         <v>2.17</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU273" t="n">
         <v>1.77</v>
@@ -56525,7 +56525,7 @@
         <v>1.44</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU276" t="n">
         <v>1.6</v>
@@ -56728,7 +56728,7 @@
         <v>1.11</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU277" t="n">
         <v>1.45</v>
@@ -56928,7 +56928,7 @@
         <v>0.62</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT278" t="n">
         <v>0.5</v>
@@ -57131,7 +57131,7 @@
         <v>1.36</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT279" t="n">
         <v>1.33</v>
@@ -57743,7 +57743,7 @@
         <v>1.33</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU282" t="n">
         <v>1.28</v>
@@ -58349,7 +58349,7 @@
         <v>1.15</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT285" t="n">
         <v>1.44</v>
@@ -59161,7 +59161,7 @@
         <v>1.57</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT289" t="n">
         <v>1.5</v>
@@ -59976,7 +59976,7 @@
         <v>1.11</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU293" t="n">
         <v>1.44</v>
@@ -60379,7 +60379,7 @@
         <v>0.36</v>
       </c>
       <c r="AS295" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT295" t="n">
         <v>0.5600000000000001</v>
@@ -60988,10 +60988,10 @@
         <v>0.86</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU298" t="n">
         <v>1.43</v>
@@ -61394,7 +61394,7 @@
         <v>1.27</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT300" t="n">
         <v>1.06</v>
@@ -62615,7 +62615,7 @@
         <v>1.47</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU306" t="n">
         <v>1.61</v>
@@ -62818,7 +62818,7 @@
         <v>1.44</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU307" t="n">
         <v>1.57</v>
@@ -63018,7 +63018,7 @@
         <v>0.67</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT308" t="n">
         <v>0.61</v>
@@ -64236,7 +64236,7 @@
         <v>1.44</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT314" t="n">
         <v>1.33</v>
@@ -64439,7 +64439,7 @@
         <v>1.75</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT315" t="n">
         <v>1.72</v>
@@ -64645,7 +64645,7 @@
         <v>2.17</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU316" t="n">
         <v>1.81</v>
@@ -65251,10 +65251,10 @@
         <v>0.87</v>
       </c>
       <c r="AS319" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT319" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU319" t="n">
         <v>2.05</v>
@@ -65863,7 +65863,7 @@
         <v>1.33</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU322" t="n">
         <v>1.3</v>
@@ -67284,7 +67284,7 @@
         <v>1.11</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU329" t="n">
         <v>1.42</v>
@@ -67687,7 +67687,7 @@
         <v>2.69</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT331" t="n">
         <v>2.44</v>
@@ -67893,7 +67893,7 @@
         <v>2.22</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU332" t="n">
         <v>1.89</v>
@@ -68093,10 +68093,10 @@
         <v>1.5</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU333" t="n">
         <v>1.62</v>
@@ -68702,7 +68702,7 @@
         <v>1.38</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT336" t="n">
         <v>1.44</v>
@@ -68905,10 +68905,10 @@
         <v>1.19</v>
       </c>
       <c r="AS337" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT337" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU337" t="n">
         <v>2.08</v>
@@ -69314,7 +69314,7 @@
         <v>1.47</v>
       </c>
       <c r="AT339" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU339" t="n">
         <v>1.57</v>
@@ -69514,7 +69514,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT340" t="n">
         <v>0.5</v>
@@ -72804,19 +72804,831 @@
         <v>2</v>
       </c>
       <c r="BG356" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2638352</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F357" t="n">
+        <v>36</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="n">
+        <v>1</v>
+      </c>
+      <c r="N357" t="n">
+        <v>2</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
         <v>3</v>
       </c>
-      <c r="BH356" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI356" t="n">
+      <c r="R357" t="n">
+        <v>3</v>
+      </c>
+      <c r="S357" t="n">
+        <v>6</v>
+      </c>
+      <c r="T357" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U357" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V357" t="n">
+        <v>4</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X357" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG357" t="n">
         <v>9</v>
       </c>
-      <c r="BJ356" t="n">
+      <c r="AH357" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK357" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2638353</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45067.54166666666</v>
+      </c>
+      <c r="F358" t="n">
+        <v>36</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>3</v>
+      </c>
+      <c r="M358" t="n">
+        <v>1</v>
+      </c>
+      <c r="N358" t="n">
         <v>4</v>
       </c>
-      <c r="BK356" t="n">
-        <v>12</v>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>['67', '85', '90+4']</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>4</v>
+      </c>
+      <c r="R358" t="n">
+        <v>1</v>
+      </c>
+      <c r="S358" t="n">
+        <v>5</v>
+      </c>
+      <c r="T358" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V358" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X358" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2638354</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45067.65625</v>
+      </c>
+      <c r="F359" t="n">
+        <v>36</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+      <c r="N359" t="n">
+        <v>1</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>3</v>
+      </c>
+      <c r="R359" t="n">
+        <v>8</v>
+      </c>
+      <c r="S359" t="n">
+        <v>11</v>
+      </c>
+      <c r="T359" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V359" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X359" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2638350</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>45068.5625</v>
+      </c>
+      <c r="F360" t="n">
+        <v>36</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>1</v>
+      </c>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
+      <c r="L360" t="n">
+        <v>2</v>
+      </c>
+      <c r="M360" t="n">
+        <v>2</v>
+      </c>
+      <c r="N360" t="n">
+        <v>4</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>['47', '83']</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['12', '54']</t>
+        </is>
+      </c>
+      <c r="Q360" t="n">
+        <v>6</v>
+      </c>
+      <c r="R360" t="n">
+        <v>4</v>
+      </c>
+      <c r="S360" t="n">
+        <v>10</v>
+      </c>
+      <c r="T360" t="n">
+        <v>2</v>
+      </c>
+      <c r="U360" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V360" t="n">
+        <v>7</v>
+      </c>
+      <c r="W360" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X360" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ360" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA360" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB360" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC360" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD360" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE360" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF360" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG360" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH360" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK360"/>
+  <dimension ref="A1:BK361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>1.11</v>
@@ -4760,7 +4760,7 @@
         <v>0.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5600000000000001</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>2.22</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
         <v>1.5</v>
@@ -14301,7 +14301,7 @@
         <v>1.44</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.45</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT74" t="n">
         <v>1.33</v>
@@ -17346,7 +17346,7 @@
         <v>2.22</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>2.05</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT92" t="n">
         <v>1.44</v>
@@ -19376,7 +19376,7 @@
         <v>1.22</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -23436,7 +23436,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23839,7 +23839,7 @@
         <v>2.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT115" t="n">
         <v>1.72</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT124" t="n">
         <v>0.89</v>
@@ -28917,7 +28917,7 @@
         <v>1.11</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU140" t="n">
         <v>1.37</v>
@@ -29320,7 +29320,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT142" t="n">
         <v>0.61</v>
@@ -32571,7 +32571,7 @@
         <v>0.72</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU158" t="n">
         <v>1.54</v>
@@ -35413,7 +35413,7 @@
         <v>2.33</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU172" t="n">
         <v>2.35</v>
@@ -37237,7 +37237,7 @@
         <v>0.88</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT181" t="n">
         <v>0.5</v>
@@ -39876,7 +39876,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT194" t="n">
         <v>1.56</v>
@@ -43330,7 +43330,7 @@
         <v>1.33</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.42</v>
@@ -43733,7 +43733,7 @@
         <v>0.6</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT213" t="n">
         <v>0.61</v>
@@ -46984,7 +46984,7 @@
         <v>1.11</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU229" t="n">
         <v>1.45</v>
@@ -47590,7 +47590,7 @@
         <v>2.58</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT232" t="n">
         <v>2.44</v>
@@ -51044,7 +51044,7 @@
         <v>1.83</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU249" t="n">
         <v>1.67</v>
@@ -51853,7 +51853,7 @@
         <v>1.23</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT253" t="n">
         <v>1.06</v>
@@ -55510,7 +55510,7 @@
         <v>2.17</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU271" t="n">
         <v>1.75</v>
@@ -57334,7 +57334,7 @@
         <v>1.07</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT280" t="n">
         <v>0.89</v>
@@ -59570,7 +59570,7 @@
         <v>1.89</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU291" t="n">
         <v>1.53</v>
@@ -61194,7 +61194,7 @@
         <v>1.56</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU299" t="n">
         <v>1.52</v>
@@ -62612,7 +62612,7 @@
         <v>1.29</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT306" t="n">
         <v>1.5</v>
@@ -65660,7 +65660,7 @@
         <v>1.61</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU321" t="n">
         <v>1.51</v>
@@ -67484,7 +67484,7 @@
         <v>1.13</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT330" t="n">
         <v>1.17</v>
@@ -68502,7 +68502,7 @@
         <v>1.67</v>
       </c>
       <c r="AT335" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AU335" t="n">
         <v>1.94</v>
@@ -69311,7 +69311,7 @@
         <v>0.88</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT339" t="n">
         <v>0.83</v>
@@ -73616,19 +73616,222 @@
         <v>6</v>
       </c>
       <c r="BG360" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH360" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2638347</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>45068.65625</v>
+      </c>
+      <c r="F361" t="n">
+        <v>36</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>2</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>2</v>
+      </c>
+      <c r="L361" t="n">
+        <v>4</v>
+      </c>
+      <c r="M361" t="n">
+        <v>1</v>
+      </c>
+      <c r="N361" t="n">
+        <v>5</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>['18', '21', '47', '90+3']</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>3</v>
+      </c>
+      <c r="R361" t="n">
+        <v>7</v>
+      </c>
+      <c r="S361" t="n">
         <v>10</v>
       </c>
-      <c r="BI360" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ360" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK360" t="n">
-        <v>4</v>
+      <c r="T361" t="n">
+        <v>5</v>
+      </c>
+      <c r="U361" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V361" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X361" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK361" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="461">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1395,6 +1395,9 @@
   <si>
     <t>['58', '81', '90+7']</t>
   </si>
+  <si>
+    <t>['5', '26', '38']</t>
+  </si>
 </sst>
 </file>
 
@@ -1755,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK381"/>
+  <dimension ref="A1:BK382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3423,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>0.79</v>
@@ -5145,7 +5148,7 @@
         <v>1.58</v>
       </c>
       <c r="AT18">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -6670,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT26">
         <v>0.89</v>
@@ -8392,7 +8395,7 @@
         <v>1.47</v>
       </c>
       <c r="AT35">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU35">
         <v>0.67</v>
@@ -10490,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT46">
         <v>1.26</v>
@@ -12976,7 +12979,7 @@
         <v>1.95</v>
       </c>
       <c r="AT59">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU59">
         <v>1.41</v>
@@ -13928,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT64">
         <v>0.47</v>
@@ -14504,7 +14507,7 @@
         <v>1.74</v>
       </c>
       <c r="AT67">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU67">
         <v>2.32</v>
@@ -18324,7 +18327,7 @@
         <v>1.42</v>
       </c>
       <c r="AT87">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -20231,7 +20234,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>0.58</v>
@@ -22908,7 +22911,7 @@
         <v>1.47</v>
       </c>
       <c r="AT111">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU111">
         <v>1.38</v>
@@ -24051,7 +24054,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT117">
         <v>1.21</v>
@@ -26346,7 +26349,7 @@
         <v>1.37</v>
       </c>
       <c r="AT129">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU129">
         <v>1.43</v>
@@ -26916,7 +26919,7 @@
         <v>1.83</v>
       </c>
       <c r="AS132">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT132">
         <v>1</v>
@@ -31118,7 +31121,7 @@
         <v>2.29</v>
       </c>
       <c r="AS154">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT154">
         <v>1.63</v>
@@ -31312,7 +31315,7 @@
         <v>1.16</v>
       </c>
       <c r="AT155">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -33410,7 +33413,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -35132,7 +35135,7 @@
         <v>2.21</v>
       </c>
       <c r="AT175">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU175">
         <v>1.82</v>
@@ -37421,7 +37424,7 @@
         <v>2</v>
       </c>
       <c r="AS187">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT187">
         <v>1.42</v>
@@ -40098,7 +40101,7 @@
         <v>1.42</v>
       </c>
       <c r="AT201">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU201">
         <v>1.79</v>
@@ -40859,7 +40862,7 @@
         <v>2.5</v>
       </c>
       <c r="AS205">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT205">
         <v>2.37</v>
@@ -45443,7 +45446,7 @@
         <v>1.7</v>
       </c>
       <c r="AS229">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT229">
         <v>1.58</v>
@@ -45637,7 +45640,7 @@
         <v>1.89</v>
       </c>
       <c r="AT230">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU230">
         <v>1.72</v>
@@ -48690,10 +48693,10 @@
         <v>0.36</v>
       </c>
       <c r="AS246">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT246">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU246">
         <v>1.47</v>
@@ -49836,7 +49839,7 @@
         <v>1.42</v>
       </c>
       <c r="AS252">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT252">
         <v>1.58</v>
@@ -52704,7 +52707,7 @@
         <v>0.53</v>
       </c>
       <c r="AT267">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU267">
         <v>1.06</v>
@@ -54041,7 +54044,7 @@
         <v>2.21</v>
       </c>
       <c r="AT274">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU274">
         <v>1.91</v>
@@ -54611,7 +54614,7 @@
         <v>0.85</v>
       </c>
       <c r="AS277">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT277">
         <v>0.79</v>
@@ -57667,7 +57670,7 @@
         <v>2</v>
       </c>
       <c r="AS293">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT293">
         <v>1.95</v>
@@ -58052,7 +58055,7 @@
         <v>2.37</v>
       </c>
       <c r="AT295">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU295">
         <v>2.11</v>
@@ -61487,7 +61490,7 @@
         <v>1.27</v>
       </c>
       <c r="AS313">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT313">
         <v>1.37</v>
@@ -62636,7 +62639,7 @@
         <v>0.84</v>
       </c>
       <c r="AT319">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU319">
         <v>1.5</v>
@@ -66265,7 +66268,7 @@
         <v>0.89</v>
       </c>
       <c r="AT338">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU338">
         <v>1.45</v>
@@ -67408,7 +67411,7 @@
         <v>1.41</v>
       </c>
       <c r="AS344">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT344">
         <v>1.42</v>
@@ -69321,7 +69324,7 @@
         <v>1.74</v>
       </c>
       <c r="AT354">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU354">
         <v>1.97</v>
@@ -71228,7 +71231,7 @@
         <v>1.56</v>
       </c>
       <c r="AS364">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT364">
         <v>1.63</v>
@@ -73714,7 +73717,7 @@
         <v>2.26</v>
       </c>
       <c r="AT377">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AU377">
         <v>1.89</v>
@@ -74530,6 +74533,197 @@
       </c>
       <c r="BK381">
         <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:63">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>6349088</v>
+      </c>
+      <c r="C382" t="s">
+        <v>63</v>
+      </c>
+      <c r="D382" t="s">
+        <v>64</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45088.65625</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382" t="s">
+        <v>72</v>
+      </c>
+      <c r="H382" t="s">
+        <v>73</v>
+      </c>
+      <c r="I382">
+        <v>1</v>
+      </c>
+      <c r="J382">
+        <v>3</v>
+      </c>
+      <c r="K382">
+        <v>4</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382">
+        <v>3</v>
+      </c>
+      <c r="N382">
+        <v>4</v>
+      </c>
+      <c r="O382" t="s">
+        <v>285</v>
+      </c>
+      <c r="P382" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q382">
+        <v>9</v>
+      </c>
+      <c r="R382">
+        <v>5</v>
+      </c>
+      <c r="S382">
+        <v>14</v>
+      </c>
+      <c r="T382">
+        <v>3.6</v>
+      </c>
+      <c r="U382">
+        <v>1.95</v>
+      </c>
+      <c r="V382">
+        <v>3.4</v>
+      </c>
+      <c r="W382">
+        <v>1.53</v>
+      </c>
+      <c r="X382">
+        <v>2.38</v>
+      </c>
+      <c r="Y382">
+        <v>3.75</v>
+      </c>
+      <c r="Z382">
+        <v>1.25</v>
+      </c>
+      <c r="AA382">
+        <v>11</v>
+      </c>
+      <c r="AB382">
+        <v>1.05</v>
+      </c>
+      <c r="AC382">
+        <v>2.88</v>
+      </c>
+      <c r="AD382">
+        <v>3</v>
+      </c>
+      <c r="AE382">
+        <v>2.7</v>
+      </c>
+      <c r="AF382">
+        <v>1.1</v>
+      </c>
+      <c r="AG382">
+        <v>7</v>
+      </c>
+      <c r="AH382">
+        <v>1.5</v>
+      </c>
+      <c r="AI382">
+        <v>2.74</v>
+      </c>
+      <c r="AJ382">
+        <v>2.4</v>
+      </c>
+      <c r="AK382">
+        <v>1.53</v>
+      </c>
+      <c r="AL382">
+        <v>2</v>
+      </c>
+      <c r="AM382">
+        <v>1.75</v>
+      </c>
+      <c r="AN382">
+        <v>1.47</v>
+      </c>
+      <c r="AO382">
+        <v>1.37</v>
+      </c>
+      <c r="AP382">
+        <v>1.4</v>
+      </c>
+      <c r="AQ382">
+        <v>0.82</v>
+      </c>
+      <c r="AR382">
+        <v>0.82</v>
+      </c>
+      <c r="AS382">
+        <v>0.79</v>
+      </c>
+      <c r="AT382">
+        <v>0.87</v>
+      </c>
+      <c r="AU382">
+        <v>1.42</v>
+      </c>
+      <c r="AV382">
+        <v>1.22</v>
+      </c>
+      <c r="AW382">
+        <v>2.64</v>
+      </c>
+      <c r="AX382">
+        <v>1.68</v>
+      </c>
+      <c r="AY382">
+        <v>7</v>
+      </c>
+      <c r="AZ382">
+        <v>2.8</v>
+      </c>
+      <c r="BA382">
+        <v>1.24</v>
+      </c>
+      <c r="BB382">
+        <v>1.5</v>
+      </c>
+      <c r="BC382">
+        <v>1.72</v>
+      </c>
+      <c r="BD382">
+        <v>2.15</v>
+      </c>
+      <c r="BE382">
+        <v>2.8</v>
+      </c>
+      <c r="BF382">
+        <v>7</v>
+      </c>
+      <c r="BG382">
+        <v>4</v>
+      </c>
+      <c r="BH382">
+        <v>6</v>
+      </c>
+      <c r="BI382">
+        <v>2</v>
+      </c>
+      <c r="BJ382">
+        <v>13</v>
+      </c>
+      <c r="BK382">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie A_20222023.xlsx
@@ -74708,22 +74708,22 @@
         <v>2.8</v>
       </c>
       <c r="BF382">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BG382">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH382">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI382">
         <v>2</v>
       </c>
       <c r="BJ382">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK382">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
